--- a/storage/framework/laravel-excel/pds-template/pds.xlsx
+++ b/storage/framework/laravel-excel/pds-template/pds.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSC143\Desktop\PSSD queries\Policies\Omnibus Rules on Appts-Final versions\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reymond.espinosa\Desktop\projects\calendar\storage\framework\laravel-excel\pds-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{903B7637-79B6-4BE8-8FBA-34913672B14F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="11895" windowHeight="6540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -3542,15 +3543,44 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3562,34 +3592,458 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3600,12 +4054,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3622,20 +4070,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3663,10 +4101,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3682,477 +4116,161 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4161,6 +4279,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4175,163 +4323,105 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4346,18 +4436,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4368,84 +4446,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4467,6 +4475,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4512,6 +4523,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -4533,49 +4566,82 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4583,12 +4649,279 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4606,36 +4939,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4645,339 +4970,15 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5234,7 +5235,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18820" name="AutoShape 116"/>
+        <xdr:cNvPr id="18820" name="AutoShape 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084490000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5273,7 +5280,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7287" name="Rectangle 119"/>
+        <xdr:cNvPr id="7287" name="Rectangle 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000771C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5345,7 +5358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7294" name="Rectangle 126"/>
+        <xdr:cNvPr id="7294" name="Rectangle 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E1C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5417,7 +5436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7296" name="Rectangle 128"/>
+        <xdr:cNvPr id="7296" name="Rectangle 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000801C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5489,7 +5514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7300" name="Rectangle 132"/>
+        <xdr:cNvPr id="7300" name="Rectangle 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000841C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5561,7 +5592,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7302" name="Rectangle 134"/>
+        <xdr:cNvPr id="7302" name="Rectangle 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000861C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5630,7 +5667,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7306" name="Rectangle 138"/>
+        <xdr:cNvPr id="7306" name="Rectangle 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A1C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5702,7 +5745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7310" name="Rectangle 142"/>
+        <xdr:cNvPr id="7310" name="Rectangle 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E1C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5774,7 +5823,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18831" name="Text Box 168"/>
+        <xdr:cNvPr id="18831" name="Text Box 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F490000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5813,7 +5868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18833" name="Rectangle 188"/>
+        <xdr:cNvPr id="18833" name="Rectangle 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091490000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5856,7 +5917,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5914,7 +5981,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5990,6 +6063,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6044,6 +6120,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6129,6 +6208,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6212,6 +6294,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6297,6 +6382,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6380,6 +6468,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6465,6 +6556,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6548,6 +6642,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6633,6 +6730,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6716,6 +6816,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6801,6 +6904,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6885,6 +6991,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6962,7 +7071,13 @@
     <xdr:ext cx="0" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9327" name="Rectangle 111"/>
+        <xdr:cNvPr id="9327" name="Rectangle 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7017,7 +7132,13 @@
     <xdr:ext cx="0" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9329" name="Rectangle 113"/>
+        <xdr:cNvPr id="9329" name="Rectangle 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7072,7 +7193,13 @@
     <xdr:ext cx="0" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9331" name="Rectangle 115"/>
+        <xdr:cNvPr id="9331" name="Rectangle 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7127,7 +7254,13 @@
     <xdr:ext cx="0" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9333" name="Rectangle 117"/>
+        <xdr:cNvPr id="9333" name="Rectangle 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7182,7 +7315,13 @@
     <xdr:ext cx="0" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9335" name="Rectangle 119"/>
+        <xdr:cNvPr id="9335" name="Rectangle 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7242,7 +7381,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9316" name="Text Box 100"/>
+        <xdr:cNvPr id="9316" name="Text Box 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7490,7 +7635,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Connector 58"/>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -7539,6 +7690,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7624,6 +7778,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7707,6 +7864,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7792,6 +7952,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7875,6 +8038,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7960,6 +8126,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8043,6 +8212,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8128,6 +8300,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8211,6 +8386,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8296,6 +8474,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4106"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8379,6 +8560,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8464,6 +8648,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4108"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8547,6 +8734,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8632,6 +8822,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4110"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8715,6 +8908,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8800,6 +8996,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4112"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8883,6 +9082,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8968,6 +9170,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4114"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9051,6 +9256,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9136,6 +9344,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4116"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9220,6 +9431,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4121"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9279,6 +9493,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9364,6 +9581,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4123"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9448,6 +9668,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4124"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9531,6 +9754,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9944,11 +10170,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
@@ -9974,20 +10200,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="410"/>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="412"/>
+      <c r="A1" s="396"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="G1" s="397"/>
+      <c r="H1" s="397"/>
+      <c r="I1" s="397"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="398"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="186"/>
@@ -10017,58 +10243,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="399" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="414"/>
-      <c r="G3" s="414"/>
-      <c r="H3" s="414"/>
-      <c r="I3" s="414"/>
-      <c r="J3" s="414"/>
-      <c r="K3" s="414"/>
-      <c r="L3" s="414"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="415"/>
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="400"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
+      <c r="N3" s="401"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="452" t="s">
+      <c r="A4" s="358" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="453"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="453"/>
-      <c r="E4" s="453"/>
-      <c r="F4" s="453"/>
-      <c r="G4" s="453"/>
-      <c r="H4" s="453"/>
-      <c r="I4" s="453"/>
-      <c r="J4" s="453"/>
-      <c r="K4" s="453"/>
-      <c r="L4" s="453"/>
-      <c r="M4" s="453"/>
-      <c r="N4" s="454"/>
+      <c r="B4" s="359"/>
+      <c r="C4" s="359"/>
+      <c r="D4" s="359"/>
+      <c r="E4" s="359"/>
+      <c r="F4" s="359"/>
+      <c r="G4" s="359"/>
+      <c r="H4" s="359"/>
+      <c r="I4" s="359"/>
+      <c r="J4" s="359"/>
+      <c r="K4" s="359"/>
+      <c r="L4" s="359"/>
+      <c r="M4" s="359"/>
+      <c r="N4" s="360"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="475" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="334"/>
-      <c r="L5" s="334"/>
-      <c r="M5" s="334"/>
-      <c r="N5" s="335"/>
+      <c r="B5" s="476"/>
+      <c r="C5" s="476"/>
+      <c r="D5" s="476"/>
+      <c r="E5" s="476"/>
+      <c r="F5" s="476"/>
+      <c r="G5" s="476"/>
+      <c r="H5" s="476"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="476"/>
+      <c r="M5" s="476"/>
+      <c r="N5" s="477"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="232"/>
@@ -10102,11 +10328,11 @@
       <c r="K7" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="419" t="s">
+      <c r="L7" s="405" t="s">
         <v>359</v>
       </c>
-      <c r="M7" s="420"/>
-      <c r="N7" s="421"/>
+      <c r="M7" s="406"/>
+      <c r="N7" s="407"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="190"/>
@@ -10125,52 +10351,52 @@
       <c r="N8" s="180"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="416" t="s">
+      <c r="A9" s="402" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="417"/>
-      <c r="C9" s="417"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="417"/>
-      <c r="G9" s="417"/>
-      <c r="H9" s="417"/>
-      <c r="I9" s="417"/>
-      <c r="J9" s="417"/>
-      <c r="K9" s="417"/>
-      <c r="L9" s="417"/>
-      <c r="M9" s="417"/>
-      <c r="N9" s="418"/>
+      <c r="B9" s="403"/>
+      <c r="C9" s="403"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="403"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="403"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="403"/>
+      <c r="J9" s="403"/>
+      <c r="K9" s="403"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="403"/>
+      <c r="N9" s="404"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="438" t="s">
+      <c r="B10" s="425" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="365"/>
-      <c r="D10" s="430"/>
-      <c r="E10" s="430"/>
-      <c r="F10" s="430"/>
-      <c r="G10" s="430"/>
-      <c r="H10" s="430"/>
-      <c r="I10" s="430"/>
-      <c r="J10" s="430"/>
-      <c r="K10" s="430"/>
-      <c r="L10" s="430"/>
-      <c r="M10" s="430"/>
-      <c r="N10" s="431"/>
+      <c r="C10" s="426"/>
+      <c r="D10" s="416"/>
+      <c r="E10" s="416"/>
+      <c r="F10" s="416"/>
+      <c r="G10" s="416"/>
+      <c r="H10" s="416"/>
+      <c r="I10" s="416"/>
+      <c r="J10" s="416"/>
+      <c r="K10" s="416"/>
+      <c r="L10" s="416"/>
+      <c r="M10" s="416"/>
+      <c r="N10" s="417"/>
       <c r="P10" s="106" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="191"/>
-      <c r="B11" s="439" t="s">
+      <c r="B11" s="427" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="440"/>
+      <c r="C11" s="428"/>
       <c r="D11" s="246"/>
       <c r="E11" s="247"/>
       <c r="F11" s="247"/>
@@ -10179,11 +10405,11 @@
       <c r="I11" s="247"/>
       <c r="J11" s="247"/>
       <c r="K11" s="247"/>
-      <c r="L11" s="366" t="s">
+      <c r="L11" s="446" t="s">
         <v>383</v>
       </c>
-      <c r="M11" s="367"/>
-      <c r="N11" s="368"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="448"/>
       <c r="P11" s="107" t="s">
         <v>52</v>
       </c>
@@ -10193,10 +10419,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="192"/>
-      <c r="B12" s="441" t="s">
+      <c r="B12" s="429" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="442"/>
+      <c r="C12" s="430"/>
       <c r="D12" s="237"/>
       <c r="E12" s="238"/>
       <c r="F12" s="238"/>
@@ -10219,23 +10445,23 @@
       <c r="A13" s="290" t="s">
         <v>370</v>
       </c>
-      <c r="B13" s="364" t="s">
+      <c r="B13" s="500" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="365"/>
-      <c r="D13" s="369"/>
-      <c r="E13" s="369"/>
-      <c r="F13" s="370"/>
+      <c r="C13" s="426"/>
+      <c r="D13" s="449"/>
+      <c r="E13" s="449"/>
+      <c r="F13" s="450"/>
       <c r="G13" s="113" t="s">
         <v>373</v>
       </c>
       <c r="H13" s="162"/>
       <c r="I13" s="162"/>
-      <c r="J13" s="376"/>
-      <c r="K13" s="377"/>
-      <c r="L13" s="377"/>
-      <c r="M13" s="377"/>
-      <c r="N13" s="378"/>
+      <c r="J13" s="456"/>
+      <c r="K13" s="457"/>
+      <c r="L13" s="457"/>
+      <c r="M13" s="457"/>
+      <c r="N13" s="458"/>
       <c r="P13" s="107" t="s">
         <v>53</v>
       </c>
@@ -10269,21 +10495,21 @@
         <v>12</v>
       </c>
       <c r="C15" s="108"/>
-      <c r="D15" s="394"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="395"/>
-      <c r="G15" s="374" t="s">
+      <c r="D15" s="470"/>
+      <c r="E15" s="470"/>
+      <c r="F15" s="471"/>
+      <c r="G15" s="454" t="s">
         <v>388</v>
       </c>
-      <c r="H15" s="375"/>
-      <c r="I15" s="375"/>
+      <c r="H15" s="455"/>
+      <c r="I15" s="455"/>
       <c r="J15" s="163"/>
       <c r="K15" s="164"/>
-      <c r="L15" s="380" t="s">
+      <c r="L15" s="460" t="s">
         <v>395</v>
       </c>
-      <c r="M15" s="380"/>
-      <c r="N15" s="381"/>
+      <c r="M15" s="460"/>
+      <c r="N15" s="461"/>
       <c r="P15" s="107" t="s">
         <v>118</v>
       </c>
@@ -10299,14 +10525,14 @@
         <v>5</v>
       </c>
       <c r="C16" s="109"/>
-      <c r="D16" s="432"/>
-      <c r="E16" s="432"/>
-      <c r="F16" s="433"/>
-      <c r="G16" s="371" t="s">
+      <c r="D16" s="418"/>
+      <c r="E16" s="418"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="451" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="372"/>
-      <c r="I16" s="373"/>
+      <c r="H16" s="452"/>
+      <c r="I16" s="453"/>
       <c r="J16" s="181"/>
       <c r="K16" s="181"/>
       <c r="L16" s="181"/>
@@ -10320,49 +10546,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="351">
+      <c r="A17" s="488">
         <v>6</v>
       </c>
-      <c r="B17" s="360" t="s">
+      <c r="B17" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="361"/>
-      <c r="D17" s="358"/>
-      <c r="E17" s="358"/>
-      <c r="F17" s="358"/>
+      <c r="C17" s="497"/>
+      <c r="D17" s="495"/>
+      <c r="E17" s="495"/>
+      <c r="F17" s="495"/>
       <c r="G17" s="114" t="s">
         <v>374</v>
       </c>
       <c r="H17" s="115"/>
-      <c r="I17" s="390"/>
-      <c r="J17" s="382"/>
-      <c r="K17" s="382"/>
-      <c r="L17" s="382"/>
-      <c r="M17" s="382"/>
-      <c r="N17" s="383"/>
+      <c r="I17" s="379"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="380"/>
+      <c r="L17" s="380"/>
+      <c r="M17" s="380"/>
+      <c r="N17" s="381"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="352"/>
-      <c r="B18" s="362"/>
-      <c r="C18" s="363"/>
-      <c r="D18" s="359"/>
-      <c r="E18" s="359"/>
-      <c r="F18" s="359"/>
+      <c r="A18" s="489"/>
+      <c r="B18" s="498"/>
+      <c r="C18" s="499"/>
+      <c r="D18" s="423"/>
+      <c r="E18" s="423"/>
+      <c r="F18" s="423"/>
       <c r="G18" s="173"/>
       <c r="H18" s="116"/>
-      <c r="I18" s="385" t="s">
+      <c r="I18" s="463" t="s">
         <v>355</v>
       </c>
-      <c r="J18" s="336"/>
-      <c r="K18" s="336"/>
-      <c r="L18" s="336" t="s">
+      <c r="J18" s="464"/>
+      <c r="K18" s="464"/>
+      <c r="L18" s="464" t="s">
         <v>354</v>
       </c>
-      <c r="M18" s="336"/>
-      <c r="N18" s="337"/>
+      <c r="M18" s="464"/>
+      <c r="N18" s="465"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -10376,100 +10602,100 @@
       <c r="F19" s="182"/>
       <c r="G19" s="173"/>
       <c r="H19" s="116"/>
-      <c r="I19" s="338"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="339"/>
-      <c r="L19" s="342"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="343"/>
+      <c r="I19" s="478"/>
+      <c r="J19" s="479"/>
+      <c r="K19" s="479"/>
+      <c r="L19" s="482"/>
+      <c r="M19" s="479"/>
+      <c r="N19" s="483"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="352"/>
+      <c r="A20" s="489"/>
       <c r="B20" s="267"/>
       <c r="C20" s="152"/>
       <c r="D20" s="153"/>
-      <c r="E20" s="359"/>
-      <c r="F20" s="359"/>
+      <c r="E20" s="423"/>
+      <c r="F20" s="423"/>
       <c r="G20" s="171"/>
       <c r="H20" s="179"/>
-      <c r="I20" s="340"/>
-      <c r="J20" s="341"/>
-      <c r="K20" s="341"/>
-      <c r="L20" s="341"/>
-      <c r="M20" s="341"/>
-      <c r="N20" s="344"/>
+      <c r="I20" s="480"/>
+      <c r="J20" s="481"/>
+      <c r="K20" s="481"/>
+      <c r="L20" s="481"/>
+      <c r="M20" s="481"/>
+      <c r="N20" s="484"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="353"/>
+      <c r="A21" s="490"/>
       <c r="B21" s="268"/>
       <c r="C21" s="150"/>
       <c r="D21" s="154"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
+      <c r="E21" s="424"/>
+      <c r="F21" s="424"/>
       <c r="G21" s="171"/>
       <c r="H21" s="179"/>
-      <c r="I21" s="345" t="s">
+      <c r="I21" s="485" t="s">
         <v>351</v>
       </c>
-      <c r="J21" s="346"/>
-      <c r="K21" s="346"/>
-      <c r="L21" s="475" t="s">
+      <c r="J21" s="486"/>
+      <c r="K21" s="486"/>
+      <c r="L21" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="M21" s="476"/>
-      <c r="N21" s="477"/>
+      <c r="M21" s="377"/>
+      <c r="N21" s="378"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="356" t="s">
+      <c r="A22" s="493" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="404" t="s">
+      <c r="B22" s="441" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="405"/>
-      <c r="D22" s="403"/>
-      <c r="E22" s="403"/>
-      <c r="F22" s="403"/>
+      <c r="C22" s="442"/>
+      <c r="D22" s="437"/>
+      <c r="E22" s="437"/>
+      <c r="F22" s="437"/>
       <c r="G22" s="171"/>
       <c r="H22" s="179"/>
-      <c r="I22" s="390"/>
-      <c r="J22" s="382"/>
-      <c r="K22" s="382"/>
-      <c r="L22" s="382"/>
-      <c r="M22" s="382"/>
-      <c r="N22" s="383"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="380"/>
+      <c r="K22" s="380"/>
+      <c r="L22" s="380"/>
+      <c r="M22" s="380"/>
+      <c r="N22" s="381"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="357"/>
-      <c r="B23" s="406"/>
-      <c r="C23" s="407"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="350"/>
+      <c r="A23" s="494"/>
+      <c r="B23" s="443"/>
+      <c r="C23" s="444"/>
+      <c r="D23" s="438"/>
+      <c r="E23" s="438"/>
+      <c r="F23" s="438"/>
       <c r="G23" s="171"/>
       <c r="H23" s="179"/>
-      <c r="I23" s="480" t="s">
+      <c r="I23" s="384" t="s">
         <v>362</v>
       </c>
-      <c r="J23" s="481"/>
-      <c r="K23" s="481"/>
-      <c r="L23" s="478" t="s">
+      <c r="J23" s="385"/>
+      <c r="K23" s="385"/>
+      <c r="L23" s="382" t="s">
         <v>353</v>
       </c>
-      <c r="M23" s="478"/>
-      <c r="N23" s="479"/>
+      <c r="M23" s="382"/>
+      <c r="N23" s="383"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -10478,132 +10704,132 @@
       <c r="A24" s="191" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="408" t="s">
+      <c r="B24" s="445" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="409"/>
-      <c r="D24" s="384"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="384"/>
-      <c r="G24" s="443" t="s">
+      <c r="C24" s="432"/>
+      <c r="D24" s="462"/>
+      <c r="E24" s="462"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="391" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="444"/>
-      <c r="I24" s="391"/>
-      <c r="J24" s="392"/>
-      <c r="K24" s="392"/>
-      <c r="L24" s="392"/>
-      <c r="M24" s="392"/>
-      <c r="N24" s="393"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="392"/>
+      <c r="J24" s="393"/>
+      <c r="K24" s="393"/>
+      <c r="L24" s="393"/>
+      <c r="M24" s="393"/>
+      <c r="N24" s="394"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="347" t="s">
+      <c r="A25" s="439" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="441" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="405"/>
-      <c r="D25" s="349"/>
-      <c r="E25" s="349"/>
-      <c r="F25" s="349"/>
+      <c r="C25" s="442"/>
+      <c r="D25" s="487"/>
+      <c r="E25" s="487"/>
+      <c r="F25" s="487"/>
       <c r="G25" s="122" t="s">
         <v>375</v>
       </c>
       <c r="H25" s="110"/>
-      <c r="I25" s="396"/>
-      <c r="J25" s="397"/>
-      <c r="K25" s="397"/>
-      <c r="L25" s="397"/>
-      <c r="M25" s="397"/>
-      <c r="N25" s="485"/>
+      <c r="I25" s="395"/>
+      <c r="J25" s="389"/>
+      <c r="K25" s="389"/>
+      <c r="L25" s="389"/>
+      <c r="M25" s="389"/>
+      <c r="N25" s="390"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="348"/>
-      <c r="B26" s="406"/>
-      <c r="C26" s="407"/>
-      <c r="D26" s="350"/>
-      <c r="E26" s="350"/>
-      <c r="F26" s="350"/>
+      <c r="A26" s="440"/>
+      <c r="B26" s="443"/>
+      <c r="C26" s="444"/>
+      <c r="D26" s="438"/>
+      <c r="E26" s="438"/>
+      <c r="F26" s="438"/>
       <c r="G26" s="171"/>
       <c r="H26" s="179"/>
-      <c r="I26" s="385" t="s">
+      <c r="I26" s="463" t="s">
         <v>355</v>
       </c>
-      <c r="J26" s="336"/>
-      <c r="K26" s="336"/>
-      <c r="L26" s="336" t="s">
+      <c r="J26" s="464"/>
+      <c r="K26" s="464"/>
+      <c r="L26" s="464" t="s">
         <v>354</v>
       </c>
-      <c r="M26" s="336"/>
-      <c r="N26" s="337"/>
+      <c r="M26" s="464"/>
+      <c r="N26" s="465"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="347" t="s">
+      <c r="A27" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="404" t="s">
+      <c r="B27" s="441" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="405"/>
-      <c r="D27" s="349"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="349"/>
+      <c r="C27" s="442"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
       <c r="G27" s="173"/>
       <c r="H27" s="116"/>
-      <c r="I27" s="396"/>
-      <c r="J27" s="397"/>
-      <c r="K27" s="397"/>
-      <c r="L27" s="397"/>
-      <c r="M27" s="397"/>
-      <c r="N27" s="485"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="389"/>
+      <c r="K27" s="389"/>
+      <c r="L27" s="389"/>
+      <c r="M27" s="389"/>
+      <c r="N27" s="390"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="348"/>
-      <c r="B28" s="406"/>
-      <c r="C28" s="407"/>
-      <c r="D28" s="350"/>
-      <c r="E28" s="350"/>
-      <c r="F28" s="350"/>
+      <c r="A28" s="440"/>
+      <c r="B28" s="443"/>
+      <c r="C28" s="444"/>
+      <c r="D28" s="438"/>
+      <c r="E28" s="438"/>
+      <c r="F28" s="438"/>
       <c r="G28" s="173"/>
       <c r="H28" s="116"/>
-      <c r="I28" s="386" t="s">
+      <c r="I28" s="466" t="s">
         <v>351</v>
       </c>
-      <c r="J28" s="387"/>
-      <c r="K28" s="387"/>
-      <c r="L28" s="388" t="s">
+      <c r="J28" s="467"/>
+      <c r="K28" s="467"/>
+      <c r="L28" s="468" t="s">
         <v>352</v>
       </c>
-      <c r="M28" s="387"/>
-      <c r="N28" s="389"/>
+      <c r="M28" s="467"/>
+      <c r="N28" s="469"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="347" t="s">
+      <c r="A29" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="404" t="s">
+      <c r="B29" s="441" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="405"/>
-      <c r="D29" s="349"/>
-      <c r="E29" s="349"/>
-      <c r="F29" s="349"/>
+      <c r="C29" s="442"/>
+      <c r="D29" s="487"/>
+      <c r="E29" s="487"/>
+      <c r="F29" s="487"/>
       <c r="G29" s="173"/>
       <c r="H29" s="184"/>
       <c r="I29" s="175"/>
@@ -10617,24 +10843,24 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="348"/>
-      <c r="B30" s="406"/>
-      <c r="C30" s="407"/>
-      <c r="D30" s="350"/>
-      <c r="E30" s="350"/>
-      <c r="F30" s="350"/>
+      <c r="A30" s="440"/>
+      <c r="B30" s="443"/>
+      <c r="C30" s="444"/>
+      <c r="D30" s="438"/>
+      <c r="E30" s="438"/>
+      <c r="F30" s="438"/>
       <c r="G30" s="173"/>
       <c r="H30" s="184"/>
-      <c r="I30" s="482" t="s">
+      <c r="I30" s="386" t="s">
         <v>362</v>
       </c>
-      <c r="J30" s="482"/>
-      <c r="K30" s="482"/>
-      <c r="L30" s="482" t="s">
+      <c r="J30" s="386"/>
+      <c r="K30" s="386"/>
+      <c r="L30" s="386" t="s">
         <v>353</v>
       </c>
-      <c r="M30" s="482"/>
-      <c r="N30" s="483"/>
+      <c r="M30" s="386"/>
+      <c r="N30" s="387"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -10647,19 +10873,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="109"/>
-      <c r="D31" s="379"/>
-      <c r="E31" s="379"/>
-      <c r="F31" s="379"/>
-      <c r="G31" s="443" t="s">
+      <c r="D31" s="459"/>
+      <c r="E31" s="459"/>
+      <c r="F31" s="459"/>
+      <c r="G31" s="391" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="444"/>
-      <c r="I31" s="480"/>
-      <c r="J31" s="481"/>
-      <c r="K31" s="481"/>
-      <c r="L31" s="475"/>
-      <c r="M31" s="475"/>
-      <c r="N31" s="484"/>
+      <c r="H31" s="369"/>
+      <c r="I31" s="384"/>
+      <c r="J31" s="385"/>
+      <c r="K31" s="385"/>
+      <c r="L31" s="376"/>
+      <c r="M31" s="376"/>
+      <c r="N31" s="388"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -10672,42 +10898,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="109"/>
-      <c r="D32" s="384"/>
-      <c r="E32" s="384"/>
-      <c r="F32" s="384"/>
+      <c r="D32" s="462"/>
+      <c r="E32" s="462"/>
+      <c r="F32" s="462"/>
       <c r="G32" s="170" t="s">
         <v>376</v>
       </c>
       <c r="H32" s="174"/>
-      <c r="I32" s="391"/>
-      <c r="J32" s="392"/>
-      <c r="K32" s="392"/>
-      <c r="L32" s="392"/>
-      <c r="M32" s="392"/>
-      <c r="N32" s="393"/>
+      <c r="I32" s="392"/>
+      <c r="J32" s="393"/>
+      <c r="K32" s="393"/>
+      <c r="L32" s="393"/>
+      <c r="M32" s="393"/>
+      <c r="N32" s="394"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="446" t="s">
+      <c r="A33" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="B33" s="409"/>
-      <c r="C33" s="447"/>
-      <c r="D33" s="448"/>
-      <c r="E33" s="448"/>
-      <c r="F33" s="448"/>
+      <c r="B33" s="432"/>
+      <c r="C33" s="433"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="434"/>
+      <c r="F33" s="434"/>
       <c r="G33" s="245" t="s">
         <v>377</v>
       </c>
       <c r="H33" s="172"/>
-      <c r="I33" s="391"/>
-      <c r="J33" s="392"/>
-      <c r="K33" s="392"/>
-      <c r="L33" s="392"/>
-      <c r="M33" s="392"/>
-      <c r="N33" s="393"/>
+      <c r="I33" s="392"/>
+      <c r="J33" s="393"/>
+      <c r="K33" s="393"/>
+      <c r="L33" s="393"/>
+      <c r="M33" s="393"/>
+      <c r="N33" s="394"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -10718,19 +10944,19 @@
       </c>
       <c r="B34" s="269"/>
       <c r="C34" s="177"/>
-      <c r="D34" s="436"/>
-      <c r="E34" s="436"/>
-      <c r="F34" s="436"/>
+      <c r="D34" s="422"/>
+      <c r="E34" s="422"/>
+      <c r="F34" s="422"/>
       <c r="G34" s="122" t="s">
         <v>378</v>
       </c>
       <c r="H34" s="110"/>
-      <c r="I34" s="398"/>
-      <c r="J34" s="399"/>
-      <c r="K34" s="399"/>
-      <c r="L34" s="399"/>
-      <c r="M34" s="399"/>
-      <c r="N34" s="400"/>
+      <c r="I34" s="472"/>
+      <c r="J34" s="473"/>
+      <c r="K34" s="473"/>
+      <c r="L34" s="473"/>
+      <c r="M34" s="473"/>
+      <c r="N34" s="474"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -10764,21 +10990,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="274"/>
-      <c r="D36" s="354"/>
-      <c r="E36" s="354"/>
-      <c r="F36" s="354"/>
-      <c r="G36" s="354"/>
-      <c r="H36" s="354"/>
-      <c r="I36" s="401" t="s">
+      <c r="D36" s="491"/>
+      <c r="E36" s="491"/>
+      <c r="F36" s="491"/>
+      <c r="G36" s="491"/>
+      <c r="H36" s="491"/>
+      <c r="I36" s="435" t="s">
         <v>380</v>
       </c>
-      <c r="J36" s="401"/>
-      <c r="K36" s="401"/>
-      <c r="L36" s="402"/>
-      <c r="M36" s="424" t="s">
+      <c r="J36" s="435"/>
+      <c r="K36" s="435"/>
+      <c r="L36" s="436"/>
+      <c r="M36" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="425"/>
+      <c r="N36" s="411"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -10789,19 +11015,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="260"/>
-      <c r="D37" s="449"/>
-      <c r="E37" s="450"/>
-      <c r="F37" s="451"/>
-      <c r="G37" s="445" t="s">
+      <c r="D37" s="333"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="335"/>
+      <c r="G37" s="348" t="s">
         <v>383</v>
       </c>
-      <c r="H37" s="445"/>
-      <c r="I37" s="322"/>
-      <c r="J37" s="322"/>
-      <c r="K37" s="322"/>
-      <c r="L37" s="323"/>
-      <c r="M37" s="327"/>
-      <c r="N37" s="328"/>
+      <c r="H37" s="348"/>
+      <c r="I37" s="331"/>
+      <c r="J37" s="331"/>
+      <c r="K37" s="331"/>
+      <c r="L37" s="332"/>
+      <c r="M37" s="329"/>
+      <c r="N37" s="330"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -10812,17 +11038,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="261"/>
-      <c r="D38" s="449"/>
-      <c r="E38" s="450"/>
-      <c r="F38" s="450"/>
-      <c r="G38" s="450"/>
-      <c r="H38" s="451"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="322"/>
-      <c r="K38" s="322"/>
-      <c r="L38" s="323"/>
-      <c r="M38" s="327"/>
-      <c r="N38" s="328"/>
+      <c r="D38" s="333"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="334"/>
+      <c r="G38" s="334"/>
+      <c r="H38" s="335"/>
+      <c r="I38" s="331"/>
+      <c r="J38" s="331"/>
+      <c r="K38" s="331"/>
+      <c r="L38" s="332"/>
+      <c r="M38" s="329"/>
+      <c r="N38" s="330"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -10833,17 +11059,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="109"/>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="322"/>
-      <c r="J39" s="322"/>
-      <c r="K39" s="322"/>
-      <c r="L39" s="323"/>
-      <c r="M39" s="327"/>
-      <c r="N39" s="328"/>
+      <c r="D39" s="492"/>
+      <c r="E39" s="492"/>
+      <c r="F39" s="492"/>
+      <c r="G39" s="492"/>
+      <c r="H39" s="492"/>
+      <c r="I39" s="331"/>
+      <c r="J39" s="331"/>
+      <c r="K39" s="331"/>
+      <c r="L39" s="332"/>
+      <c r="M39" s="329"/>
+      <c r="N39" s="330"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -10854,17 +11080,17 @@
         <v>369</v>
       </c>
       <c r="C40" s="109"/>
-      <c r="D40" s="355"/>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="355"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="322"/>
-      <c r="J40" s="322"/>
-      <c r="K40" s="322"/>
-      <c r="L40" s="323"/>
-      <c r="M40" s="327"/>
-      <c r="N40" s="328"/>
+      <c r="D40" s="492"/>
+      <c r="E40" s="492"/>
+      <c r="F40" s="492"/>
+      <c r="G40" s="492"/>
+      <c r="H40" s="492"/>
+      <c r="I40" s="331"/>
+      <c r="J40" s="331"/>
+      <c r="K40" s="331"/>
+      <c r="L40" s="332"/>
+      <c r="M40" s="329"/>
+      <c r="N40" s="330"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -10875,17 +11101,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="109"/>
-      <c r="D41" s="355"/>
-      <c r="E41" s="355"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="322"/>
-      <c r="J41" s="322"/>
-      <c r="K41" s="322"/>
-      <c r="L41" s="323"/>
-      <c r="M41" s="327"/>
-      <c r="N41" s="328"/>
+      <c r="D41" s="492"/>
+      <c r="E41" s="492"/>
+      <c r="F41" s="492"/>
+      <c r="G41" s="492"/>
+      <c r="H41" s="492"/>
+      <c r="I41" s="331"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="331"/>
+      <c r="L41" s="332"/>
+      <c r="M41" s="329"/>
+      <c r="N41" s="330"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -10896,17 +11122,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="151"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="355"/>
-      <c r="F42" s="355"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="355"/>
-      <c r="I42" s="322"/>
-      <c r="J42" s="322"/>
-      <c r="K42" s="322"/>
-      <c r="L42" s="323"/>
-      <c r="M42" s="327"/>
-      <c r="N42" s="328"/>
+      <c r="D42" s="492"/>
+      <c r="E42" s="492"/>
+      <c r="F42" s="492"/>
+      <c r="G42" s="492"/>
+      <c r="H42" s="492"/>
+      <c r="I42" s="331"/>
+      <c r="J42" s="331"/>
+      <c r="K42" s="331"/>
+      <c r="L42" s="332"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="330"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -10919,17 +11145,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="115"/>
-      <c r="D43" s="506"/>
-      <c r="E43" s="506"/>
-      <c r="F43" s="506"/>
-      <c r="G43" s="506"/>
-      <c r="H43" s="506"/>
-      <c r="I43" s="322"/>
-      <c r="J43" s="322"/>
-      <c r="K43" s="322"/>
-      <c r="L43" s="323"/>
-      <c r="M43" s="327"/>
-      <c r="N43" s="328"/>
+      <c r="D43" s="346"/>
+      <c r="E43" s="346"/>
+      <c r="F43" s="346"/>
+      <c r="G43" s="346"/>
+      <c r="H43" s="346"/>
+      <c r="I43" s="331"/>
+      <c r="J43" s="331"/>
+      <c r="K43" s="331"/>
+      <c r="L43" s="332"/>
+      <c r="M43" s="329"/>
+      <c r="N43" s="330"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -10940,19 +11166,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="262"/>
-      <c r="D44" s="449"/>
-      <c r="E44" s="450"/>
-      <c r="F44" s="451"/>
-      <c r="G44" s="445" t="s">
+      <c r="D44" s="333"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="335"/>
+      <c r="G44" s="348" t="s">
         <v>383</v>
       </c>
-      <c r="H44" s="445"/>
-      <c r="I44" s="322"/>
-      <c r="J44" s="322"/>
-      <c r="K44" s="322"/>
-      <c r="L44" s="323"/>
-      <c r="M44" s="327"/>
-      <c r="N44" s="328"/>
+      <c r="H44" s="348"/>
+      <c r="I44" s="331"/>
+      <c r="J44" s="331"/>
+      <c r="K44" s="331"/>
+      <c r="L44" s="332"/>
+      <c r="M44" s="329"/>
+      <c r="N44" s="330"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -10963,17 +11189,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="264"/>
-      <c r="D45" s="449"/>
-      <c r="E45" s="450"/>
-      <c r="F45" s="450"/>
-      <c r="G45" s="450"/>
-      <c r="H45" s="451"/>
-      <c r="I45" s="322"/>
-      <c r="J45" s="322"/>
-      <c r="K45" s="322"/>
-      <c r="L45" s="323"/>
-      <c r="M45" s="327"/>
-      <c r="N45" s="328"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="331"/>
+      <c r="J45" s="331"/>
+      <c r="K45" s="331"/>
+      <c r="L45" s="332"/>
+      <c r="M45" s="329"/>
+      <c r="N45" s="330"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -10986,17 +11212,17 @@
         <v>85</v>
       </c>
       <c r="C46" s="116"/>
-      <c r="D46" s="507"/>
-      <c r="E46" s="507"/>
-      <c r="F46" s="507"/>
-      <c r="G46" s="507"/>
-      <c r="H46" s="507"/>
-      <c r="I46" s="322"/>
-      <c r="J46" s="322"/>
-      <c r="K46" s="322"/>
-      <c r="L46" s="323"/>
-      <c r="M46" s="327"/>
-      <c r="N46" s="328"/>
+      <c r="D46" s="347"/>
+      <c r="E46" s="347"/>
+      <c r="F46" s="347"/>
+      <c r="G46" s="347"/>
+      <c r="H46" s="347"/>
+      <c r="I46" s="331"/>
+      <c r="J46" s="331"/>
+      <c r="K46" s="331"/>
+      <c r="L46" s="332"/>
+      <c r="M46" s="329"/>
+      <c r="N46" s="330"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -11007,17 +11233,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="262"/>
-      <c r="D47" s="507"/>
-      <c r="E47" s="507"/>
-      <c r="F47" s="507"/>
-      <c r="G47" s="507"/>
-      <c r="H47" s="507"/>
-      <c r="I47" s="322"/>
-      <c r="J47" s="322"/>
-      <c r="K47" s="322"/>
-      <c r="L47" s="323"/>
-      <c r="M47" s="327"/>
-      <c r="N47" s="328"/>
+      <c r="D47" s="347"/>
+      <c r="E47" s="347"/>
+      <c r="F47" s="347"/>
+      <c r="G47" s="347"/>
+      <c r="H47" s="347"/>
+      <c r="I47" s="331"/>
+      <c r="J47" s="331"/>
+      <c r="K47" s="331"/>
+      <c r="L47" s="332"/>
+      <c r="M47" s="329"/>
+      <c r="N47" s="330"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -11028,17 +11254,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="262"/>
-      <c r="D48" s="507"/>
-      <c r="E48" s="507"/>
-      <c r="F48" s="507"/>
-      <c r="G48" s="507"/>
-      <c r="H48" s="507"/>
-      <c r="I48" s="322"/>
-      <c r="J48" s="322"/>
-      <c r="K48" s="322"/>
-      <c r="L48" s="323"/>
-      <c r="M48" s="327"/>
-      <c r="N48" s="328"/>
+      <c r="D48" s="347"/>
+      <c r="E48" s="347"/>
+      <c r="F48" s="347"/>
+      <c r="G48" s="347"/>
+      <c r="H48" s="347"/>
+      <c r="I48" s="331"/>
+      <c r="J48" s="331"/>
+      <c r="K48" s="331"/>
+      <c r="L48" s="332"/>
+      <c r="M48" s="329"/>
+      <c r="N48" s="330"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -11049,19 +11275,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="263"/>
-      <c r="D49" s="326"/>
-      <c r="E49" s="326"/>
-      <c r="F49" s="326"/>
-      <c r="G49" s="326"/>
-      <c r="H49" s="326"/>
-      <c r="I49" s="324" t="s">
+      <c r="D49" s="506"/>
+      <c r="E49" s="506"/>
+      <c r="F49" s="506"/>
+      <c r="G49" s="506"/>
+      <c r="H49" s="506"/>
+      <c r="I49" s="504" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="324"/>
-      <c r="K49" s="324"/>
-      <c r="L49" s="324"/>
-      <c r="M49" s="324"/>
-      <c r="N49" s="325"/>
+      <c r="J49" s="504"/>
+      <c r="K49" s="504"/>
+      <c r="L49" s="504"/>
+      <c r="M49" s="504"/>
+      <c r="N49" s="505"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -11077,47 +11303,47 @@
       <c r="F50" s="112"/>
       <c r="G50" s="112"/>
       <c r="H50" s="112"/>
-      <c r="I50" s="434" t="s">
+      <c r="I50" s="420" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="434"/>
-      <c r="K50" s="434"/>
-      <c r="L50" s="434"/>
-      <c r="M50" s="434"/>
-      <c r="N50" s="435"/>
+      <c r="J50" s="420"/>
+      <c r="K50" s="420"/>
+      <c r="L50" s="420"/>
+      <c r="M50" s="420"/>
+      <c r="N50" s="421"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="426" t="s">
+      <c r="A51" s="412" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="458" t="s">
+      <c r="B51" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="458"/>
-      <c r="D51" s="461" t="s">
+      <c r="C51" s="364"/>
+      <c r="D51" s="349" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="462"/>
-      <c r="F51" s="463"/>
-      <c r="G51" s="461" t="s">
+      <c r="E51" s="350"/>
+      <c r="F51" s="367"/>
+      <c r="G51" s="349" t="s">
         <v>386</v>
       </c>
-      <c r="H51" s="462"/>
-      <c r="I51" s="508"/>
-      <c r="J51" s="329" t="s">
+      <c r="H51" s="350"/>
+      <c r="I51" s="351"/>
+      <c r="J51" s="507" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="330"/>
-      <c r="L51" s="501" t="s">
+      <c r="K51" s="508"/>
+      <c r="L51" s="341" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="428" t="s">
+      <c r="M51" s="414" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="422" t="s">
+      <c r="N51" s="408" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -11125,43 +11351,43 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="427"/>
-      <c r="B52" s="459"/>
-      <c r="C52" s="459"/>
-      <c r="D52" s="464"/>
-      <c r="E52" s="465"/>
-      <c r="F52" s="466"/>
-      <c r="G52" s="464"/>
-      <c r="H52" s="465"/>
-      <c r="I52" s="509"/>
-      <c r="J52" s="331"/>
-      <c r="K52" s="332"/>
-      <c r="L52" s="501"/>
-      <c r="M52" s="428"/>
-      <c r="N52" s="422"/>
+      <c r="A52" s="413"/>
+      <c r="B52" s="365"/>
+      <c r="C52" s="365"/>
+      <c r="D52" s="352"/>
+      <c r="E52" s="353"/>
+      <c r="F52" s="368"/>
+      <c r="G52" s="352"/>
+      <c r="H52" s="353"/>
+      <c r="I52" s="354"/>
+      <c r="J52" s="509"/>
+      <c r="K52" s="510"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="414"/>
+      <c r="N52" s="408"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="272"/>
-      <c r="B53" s="460"/>
-      <c r="C53" s="460"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="468"/>
-      <c r="F53" s="444"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="468"/>
-      <c r="I53" s="510"/>
+      <c r="B53" s="366"/>
+      <c r="C53" s="366"/>
+      <c r="D53" s="355"/>
+      <c r="E53" s="356"/>
+      <c r="F53" s="369"/>
+      <c r="G53" s="355"/>
+      <c r="H53" s="356"/>
+      <c r="I53" s="357"/>
       <c r="J53" s="117" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="502"/>
-      <c r="M53" s="429"/>
-      <c r="N53" s="423"/>
+      <c r="L53" s="342"/>
+      <c r="M53" s="415"/>
+      <c r="N53" s="409"/>
       <c r="O53" s="119"/>
       <c r="P53" s="119"/>
       <c r="Q53" s="3" t="s">
@@ -11174,12 +11400,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="278"/>
-      <c r="D54" s="469"/>
-      <c r="E54" s="470"/>
-      <c r="F54" s="471"/>
-      <c r="G54" s="503"/>
-      <c r="H54" s="504"/>
-      <c r="I54" s="505"/>
+      <c r="D54" s="370"/>
+      <c r="E54" s="371"/>
+      <c r="F54" s="372"/>
+      <c r="G54" s="343"/>
+      <c r="H54" s="344"/>
+      <c r="I54" s="345"/>
       <c r="J54" s="29"/>
       <c r="K54" s="271"/>
       <c r="L54" s="185"/>
@@ -11195,12 +11421,12 @@
         <v>24</v>
       </c>
       <c r="C55" s="278"/>
-      <c r="D55" s="469"/>
-      <c r="E55" s="470"/>
-      <c r="F55" s="471"/>
-      <c r="G55" s="503"/>
-      <c r="H55" s="504"/>
-      <c r="I55" s="505"/>
+      <c r="D55" s="370"/>
+      <c r="E55" s="371"/>
+      <c r="F55" s="372"/>
+      <c r="G55" s="343"/>
+      <c r="H55" s="344"/>
+      <c r="I55" s="345"/>
       <c r="J55" s="29"/>
       <c r="K55" s="30"/>
       <c r="L55" s="281"/>
@@ -11216,12 +11442,12 @@
         <v>58</v>
       </c>
       <c r="C56" s="278"/>
-      <c r="D56" s="469"/>
-      <c r="E56" s="470"/>
-      <c r="F56" s="471"/>
-      <c r="G56" s="319"/>
-      <c r="H56" s="320"/>
-      <c r="I56" s="321"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="371"/>
+      <c r="F56" s="372"/>
+      <c r="G56" s="501"/>
+      <c r="H56" s="502"/>
+      <c r="I56" s="503"/>
       <c r="J56" s="29"/>
       <c r="K56" s="30"/>
       <c r="L56" s="185"/>
@@ -11237,12 +11463,12 @@
         <v>71</v>
       </c>
       <c r="C57" s="278"/>
-      <c r="D57" s="469"/>
-      <c r="E57" s="470"/>
-      <c r="F57" s="471"/>
-      <c r="G57" s="319"/>
-      <c r="H57" s="320"/>
-      <c r="I57" s="321"/>
+      <c r="D57" s="370"/>
+      <c r="E57" s="371"/>
+      <c r="F57" s="372"/>
+      <c r="G57" s="501"/>
+      <c r="H57" s="502"/>
+      <c r="I57" s="503"/>
       <c r="J57" s="29"/>
       <c r="K57" s="30"/>
       <c r="L57" s="185"/>
@@ -11258,12 +11484,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="280"/>
-      <c r="D58" s="472"/>
-      <c r="E58" s="473"/>
-      <c r="F58" s="474"/>
-      <c r="G58" s="455"/>
-      <c r="H58" s="456"/>
-      <c r="I58" s="457"/>
+      <c r="D58" s="373"/>
+      <c r="E58" s="374"/>
+      <c r="F58" s="375"/>
+      <c r="G58" s="361"/>
+      <c r="H58" s="362"/>
+      <c r="I58" s="363"/>
       <c r="J58" s="275"/>
       <c r="K58" s="276"/>
       <c r="L58" s="23"/>
@@ -11274,45 +11500,45 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="490" t="s">
+      <c r="A59" s="323" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="491"/>
-      <c r="C59" s="491"/>
-      <c r="D59" s="491"/>
-      <c r="E59" s="491"/>
-      <c r="F59" s="491"/>
-      <c r="G59" s="491"/>
-      <c r="H59" s="491"/>
-      <c r="I59" s="491"/>
-      <c r="J59" s="491"/>
-      <c r="K59" s="491"/>
-      <c r="L59" s="491"/>
-      <c r="M59" s="491"/>
-      <c r="N59" s="492"/>
+      <c r="B59" s="324"/>
+      <c r="C59" s="324"/>
+      <c r="D59" s="324"/>
+      <c r="E59" s="324"/>
+      <c r="F59" s="324"/>
+      <c r="G59" s="324"/>
+      <c r="H59" s="324"/>
+      <c r="I59" s="324"/>
+      <c r="J59" s="324"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="324"/>
+      <c r="M59" s="324"/>
+      <c r="N59" s="325"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="487" t="s">
+      <c r="A60" s="320" t="s">
         <v>393</v>
       </c>
-      <c r="B60" s="488"/>
-      <c r="C60" s="489"/>
-      <c r="D60" s="496"/>
-      <c r="E60" s="497"/>
-      <c r="F60" s="497"/>
-      <c r="G60" s="497"/>
-      <c r="H60" s="497"/>
-      <c r="I60" s="498"/>
-      <c r="J60" s="499" t="s">
+      <c r="B60" s="321"/>
+      <c r="C60" s="322"/>
+      <c r="D60" s="336"/>
+      <c r="E60" s="337"/>
+      <c r="F60" s="337"/>
+      <c r="G60" s="337"/>
+      <c r="H60" s="337"/>
+      <c r="I60" s="338"/>
+      <c r="J60" s="339" t="s">
         <v>394</v>
       </c>
-      <c r="K60" s="500"/>
-      <c r="L60" s="493"/>
-      <c r="M60" s="494"/>
-      <c r="N60" s="495"/>
+      <c r="K60" s="340"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="328"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
@@ -11320,22 +11546,22 @@
       <c r="S60" s="120"/>
     </row>
     <row r="61" spans="1:19" s="300" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="486" t="s">
+      <c r="A61" s="319" t="s">
         <v>397</v>
       </c>
-      <c r="B61" s="486"/>
-      <c r="C61" s="486"/>
-      <c r="D61" s="486"/>
-      <c r="E61" s="486"/>
-      <c r="F61" s="486"/>
-      <c r="G61" s="486"/>
-      <c r="H61" s="486"/>
-      <c r="I61" s="486"/>
-      <c r="J61" s="486"/>
-      <c r="K61" s="486"/>
-      <c r="L61" s="486"/>
-      <c r="M61" s="486"/>
-      <c r="N61" s="486"/>
+      <c r="B61" s="319"/>
+      <c r="C61" s="319"/>
+      <c r="D61" s="319"/>
+      <c r="E61" s="319"/>
+      <c r="F61" s="319"/>
+      <c r="G61" s="319"/>
+      <c r="H61" s="319"/>
+      <c r="I61" s="319"/>
+      <c r="J61" s="319"/>
+      <c r="K61" s="319"/>
+      <c r="L61" s="319"/>
+      <c r="M61" s="319"/>
+      <c r="N61" s="319"/>
       <c r="Q61" s="301" t="s">
         <v>398</v>
       </c>
@@ -15064,6 +15290,123 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="141">
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="A61:N61"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A59:N59"/>
@@ -15088,334 +15431,217 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G51:I53"/>
     <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q12" r:id="rId2" display="http://www.state.gov/p/sca/ci/af/"/>
-    <hyperlink ref="Q13" r:id="rId3" display="http://www.state.gov/p/eur/ci/al/"/>
-    <hyperlink ref="Q15" r:id="rId4" display="http://www.state.gov/p/nea/ci/ag"/>
-    <hyperlink ref="Q16" r:id="rId5" display="http://www.state.gov/p/eur/ci/an/"/>
-    <hyperlink ref="Q17" r:id="rId6" display="http://www.state.gov/p/af/ci/ao/"/>
-    <hyperlink ref="Q18" r:id="rId7" display="http://www.state.gov/p/wha/ci/ac/"/>
-    <hyperlink ref="Q19" r:id="rId8" display="http://www.state.gov/p/wha/ci/ar/"/>
-    <hyperlink ref="Q20" r:id="rId9" display="http://www.state.gov/p/eur/ci/am/"/>
-    <hyperlink ref="Q21" r:id="rId10" display="http://www.state.gov/p/eur/ci/nl/"/>
-    <hyperlink ref="Q22" r:id="rId11" display="http://www.state.gov/p/eap/ci/as/"/>
-    <hyperlink ref="Q23" r:id="rId12" display="http://www.state.gov/p/eur/ci/au/"/>
-    <hyperlink ref="Q24" r:id="rId13" display="http://www.state.gov/p/eur/ci/aj/"/>
-    <hyperlink ref="Q25" r:id="rId14" display="http://www.state.gov/p/wha/ci/bf/"/>
-    <hyperlink ref="Q26" r:id="rId15" display="http://www.state.gov/p/nea/ci/ba"/>
-    <hyperlink ref="Q27" r:id="rId16" display="http://www.state.gov/p/sca/ci/bg/"/>
-    <hyperlink ref="Q28" r:id="rId17" display="http://www.state.gov/p/wha/ci/bb/"/>
-    <hyperlink ref="Q29" r:id="rId18" display="http://www.state.gov/p/eur/ci/bo/"/>
-    <hyperlink ref="Q30" r:id="rId19" display="http://www.state.gov/p/eur/ci/be/"/>
-    <hyperlink ref="Q31" r:id="rId20" display="http://www.state.gov/p/wha/ci/bh/"/>
-    <hyperlink ref="Q32" r:id="rId21" display="http://www.state.gov/p/af/ci/bn/"/>
-    <hyperlink ref="Q33" r:id="rId22" display="http://www.state.gov/p/sca/ci/bt/"/>
-    <hyperlink ref="Q34" r:id="rId23" display="http://www.state.gov/p/wha/ci/bl/"/>
-    <hyperlink ref="Q35" r:id="rId24" display="http://www.state.gov/p/eur/ci/bk/"/>
-    <hyperlink ref="Q36" r:id="rId25" display="http://www.state.gov/p/af/ci/bc/"/>
-    <hyperlink ref="Q37" r:id="rId26" display="http://www.state.gov/p/wha/ci/br/"/>
-    <hyperlink ref="Q38" r:id="rId27" display="http://www.state.gov/p/eap/ci/bx/"/>
-    <hyperlink ref="Q39" r:id="rId28" display="http://www.state.gov/p/eur/ci/bu/"/>
-    <hyperlink ref="Q40" r:id="rId29" display="http://www.state.gov/p/af/ci/uv/"/>
-    <hyperlink ref="Q41" r:id="rId30" display="http://www.state.gov/p/eap/ci/bm/"/>
-    <hyperlink ref="Q42" r:id="rId31" display="http://www.state.gov/p/af/ci/by/"/>
-    <hyperlink ref="Q43" r:id="rId32" display="http://www.state.gov/p/eap/ci/cb/"/>
-    <hyperlink ref="Q44" r:id="rId33" display="http://www.state.gov/p/af/ci/cm/"/>
-    <hyperlink ref="Q45" r:id="rId34" display="http://www.state.gov/p/wha/ci/ca/"/>
-    <hyperlink ref="Q46" r:id="rId35" display="http://www.state.gov/p/af/ci/cv/"/>
-    <hyperlink ref="Q47" r:id="rId36" display="http://www.state.gov/p/af/ci/car/"/>
-    <hyperlink ref="Q48" r:id="rId37" display="http://www.state.gov/p/af/ci/cd/"/>
-    <hyperlink ref="Q49" r:id="rId38" display="http://www.state.gov/p/wha/ci/ci/"/>
-    <hyperlink ref="Q50" r:id="rId39" display="http://www.state.gov/p/eap/ci/ch/"/>
-    <hyperlink ref="Q51" r:id="rId40" display="http://www.state.gov/p/wha/ci/co/"/>
-    <hyperlink ref="Q52" r:id="rId41" display="http://www.state.gov/p/af/ci/cn/"/>
-    <hyperlink ref="Q53" r:id="rId42" display="http://www.state.gov/p/af/ci/cg/"/>
-    <hyperlink ref="Q54" r:id="rId43" display="http://www.state.gov/p/af/ci/cf/"/>
-    <hyperlink ref="Q55" r:id="rId44" display="http://www.state.gov/p/wha/ci/cs/"/>
-    <hyperlink ref="Q56" r:id="rId45" display="http://www.state.gov/p/af/ci/iv/"/>
-    <hyperlink ref="Q57" r:id="rId46" display="http://www.state.gov/p/eur/ci/hr/"/>
-    <hyperlink ref="Q58" r:id="rId47" display="http://www.state.gov/p/wha/ci/cu/"/>
-    <hyperlink ref="Q59" r:id="rId48" display="http://www.state.gov/p/eur/ci/nl/"/>
-    <hyperlink ref="Q62" r:id="rId49" display="http://www.state.gov/p/af/ci/dj/"/>
-    <hyperlink ref="Q63" r:id="rId50" display="http://www.state.gov/p/wha/ci/do/"/>
-    <hyperlink ref="Q64" r:id="rId51" display="http://www.state.gov/p/wha/ci/dr/"/>
-    <hyperlink ref="Q65" r:id="rId52" display="http://www.state.gov/p/eap/ci/tt/"/>
-    <hyperlink ref="Q66" r:id="rId53" display="http://www.state.gov/p/wha/ci/ec/"/>
-    <hyperlink ref="Q67" r:id="rId54" display="http://www.state.gov/p/nea/ci/eg"/>
-    <hyperlink ref="Q68" r:id="rId55" display="http://www.state.gov/p/wha/ci/es/"/>
-    <hyperlink ref="Q69" r:id="rId56" display="http://www.state.gov/p/af/ci/ek/"/>
-    <hyperlink ref="Q70" r:id="rId57" display="http://www.state.gov/p/af/ci/er/"/>
-    <hyperlink ref="Q71" r:id="rId58" display="http://www.state.gov/p/eur/ci/en/"/>
-    <hyperlink ref="Q72" r:id="rId59" display="http://www.state.gov/p/af/ci/et/"/>
-    <hyperlink ref="Q73" r:id="rId60" display="http://www.state.gov/p/eap/ci/fj/"/>
-    <hyperlink ref="Q74" r:id="rId61" display="http://www.state.gov/p/eur/ci/fi/"/>
-    <hyperlink ref="Q75" r:id="rId62" display="http://www.state.gov/p/eur/ci/fr/"/>
-    <hyperlink ref="Q76" r:id="rId63" display="http://www.state.gov/p/af/ci/gb/"/>
-    <hyperlink ref="Q77" r:id="rId64" display="http://www.state.gov/p/af/ci/ga/"/>
-    <hyperlink ref="Q78" r:id="rId65" display="http://www.state.gov/p/eur/ci/gg/"/>
-    <hyperlink ref="Q79" r:id="rId66" display="http://www.state.gov/p/eur/ci/gm/"/>
-    <hyperlink ref="Q80" r:id="rId67" display="http://www.state.gov/p/af/ci/gh/"/>
-    <hyperlink ref="Q81" r:id="rId68" display="http://www.state.gov/p/eur/ci/gr/"/>
-    <hyperlink ref="Q82" r:id="rId69" display="http://www.state.gov/p/wha/ci/gj/"/>
-    <hyperlink ref="Q83" r:id="rId70" display="http://www.state.gov/p/wha/ci/gt/"/>
-    <hyperlink ref="Q84" r:id="rId71" display="http://www.state.gov/p/af/ci/gv/"/>
-    <hyperlink ref="Q85" r:id="rId72" display="http://www.state.gov/p/af/ci/pu/"/>
-    <hyperlink ref="Q86" r:id="rId73" display="http://www.state.gov/p/wha/ci/gy/"/>
-    <hyperlink ref="Q87" r:id="rId74" display="http://www.state.gov/p/wha/ci/ha/"/>
-    <hyperlink ref="Q88" r:id="rId75" display="http://www.state.gov/p/eur/ci/vt/"/>
-    <hyperlink ref="Q89" r:id="rId76" display="http://www.state.gov/p/wha/ci/ho/"/>
-    <hyperlink ref="Q90" r:id="rId77" display="http://www.state.gov/p/eap/ci/ch/index.htm"/>
-    <hyperlink ref="Q91" r:id="rId78" display="http://www.state.gov/p/eur/ci/hu/"/>
-    <hyperlink ref="Q92" r:id="rId79" display="http://www.state.gov/p/eur/ci/ic/"/>
-    <hyperlink ref="Q93" r:id="rId80" display="http://www.state.gov/p/sca/ci/in/"/>
-    <hyperlink ref="Q94" r:id="rId81" display="http://www.state.gov/p/eap/ci/id/"/>
-    <hyperlink ref="Q95" r:id="rId82" display="http://www.state.gov/p/nea/ci/ir"/>
-    <hyperlink ref="Q96" r:id="rId83" display="http://www.state.gov/p/nea/ci/iz"/>
-    <hyperlink ref="Q97" r:id="rId84" display="http://www.state.gov/p/eur/ci/ei/"/>
-    <hyperlink ref="Q98" r:id="rId85" display="http://www.state.gov/p/nea/ci/is/"/>
-    <hyperlink ref="Q99" r:id="rId86" display="http://www.state.gov/p/eur/ci/it/"/>
-    <hyperlink ref="Q100" r:id="rId87" display="http://www.state.gov/p/wha/ci/jm/"/>
-    <hyperlink ref="Q101" r:id="rId88" display="http://www.state.gov/p/eap/ci/ja/"/>
-    <hyperlink ref="Q102" r:id="rId89" display="http://www.state.gov/p/nea/ci/jo/"/>
-    <hyperlink ref="Q103" r:id="rId90" display="http://www.state.gov/p/sca/ci/kz/"/>
-    <hyperlink ref="Q104" r:id="rId91" display="http://www.state.gov/p/af/ci/ke/"/>
-    <hyperlink ref="Q105" r:id="rId92" display="http://www.state.gov/p/eap/ci/kr/"/>
-    <hyperlink ref="Q106" r:id="rId93" display="http://www.state.gov/p/eap/ci/kn/"/>
-    <hyperlink ref="Q107" r:id="rId94" display="http://www.state.gov/p/eap/ci/ks/"/>
-    <hyperlink ref="Q108" r:id="rId95" display="http://www.state.gov/p/eur/ci/kv/"/>
-    <hyperlink ref="Q109" r:id="rId96" display="http://www.state.gov/p/nea/ci/ku"/>
-    <hyperlink ref="Q110" r:id="rId97" display="http://www.state.gov/p/sca/ci/kg/"/>
-    <hyperlink ref="Q111" r:id="rId98" display="http://www.state.gov/p/eap/ci/la/"/>
-    <hyperlink ref="Q112" r:id="rId99" display="http://www.state.gov/p/eur/ci/lg/"/>
-    <hyperlink ref="Q113" r:id="rId100" display="http://www.state.gov/p/nea/ci/le"/>
-    <hyperlink ref="Q114" r:id="rId101" display="http://www.state.gov/p/af/ci/lt/"/>
-    <hyperlink ref="Q115" r:id="rId102" display="http://www.state.gov/p/af/ci/li/"/>
-    <hyperlink ref="Q116" r:id="rId103" display="http://www.state.gov/p/nea/ci/ly"/>
-    <hyperlink ref="Q117" r:id="rId104" display="http://www.state.gov/p/eur/ci/ls/"/>
-    <hyperlink ref="Q118" r:id="rId105" display="http://www.state.gov/p/eur/ci/lh/"/>
-    <hyperlink ref="Q119" r:id="rId106" display="http://www.state.gov/p/eur/ci/lu/"/>
-    <hyperlink ref="Q120" r:id="rId107" display="http://www.state.gov/p/eap/ci/ch/index.htm"/>
-    <hyperlink ref="Q121" r:id="rId108" display="http://www.state.gov/p/eur/ci/mk/"/>
-    <hyperlink ref="Q122" r:id="rId109" display="http://www.state.gov/p/af/ci/ma/"/>
-    <hyperlink ref="Q123" r:id="rId110" display="http://www.state.gov/p/af/ci/mi/"/>
-    <hyperlink ref="Q124" r:id="rId111" display="http://www.state.gov/p/eap/ci/my/"/>
-    <hyperlink ref="Q125" r:id="rId112" display="http://www.state.gov/p/sca/ci/mv/"/>
-    <hyperlink ref="Q126" r:id="rId113" display="http://www.state.gov/p/af/ci/ml/"/>
-    <hyperlink ref="Q127" r:id="rId114" display="http://www.state.gov/p/eur/ci/mt/"/>
-    <hyperlink ref="Q128" r:id="rId115" display="http://www.state.gov/p/eap/ci/rm/"/>
-    <hyperlink ref="Q129" r:id="rId116" display="http://www.state.gov/p/af/ci/mr/"/>
-    <hyperlink ref="Q130" r:id="rId117" display="http://www.state.gov/p/af/ci/mp/"/>
-    <hyperlink ref="Q131" r:id="rId118" display="http://www.state.gov/p/wha/ci/mx/"/>
-    <hyperlink ref="Q132" r:id="rId119" display="http://www.state.gov/p/eap/ci/fm/"/>
-    <hyperlink ref="Q133" r:id="rId120" display="http://www.state.gov/p/eur/ci/md/"/>
-    <hyperlink ref="Q134" r:id="rId121" display="http://www.state.gov/p/eur/ci/mn/"/>
-    <hyperlink ref="Q135" r:id="rId122" display="http://www.state.gov/p/eap/ci/mg/"/>
-    <hyperlink ref="Q136" r:id="rId123" display="http://www.state.gov/p/eur/ci/mj/"/>
-    <hyperlink ref="Q137" r:id="rId124" display="http://www.state.gov/p/nea/ci/mo"/>
-    <hyperlink ref="Q138" r:id="rId125" display="http://www.state.gov/p/af/ci/mz/"/>
-    <hyperlink ref="Q139" r:id="rId126" display="http://www.state.gov/p/af/ci/wa/"/>
-    <hyperlink ref="Q140" r:id="rId127" display="http://www.state.gov/p/eap/ci/nr/"/>
-    <hyperlink ref="Q141" r:id="rId128" display="http://www.state.gov/p/sca/ci/np/"/>
-    <hyperlink ref="Q142" r:id="rId129" display="http://www.state.gov/p/eur/ci/nl/"/>
-    <hyperlink ref="Q143" r:id="rId130" display="http://www.state.gov/r/pa/ei/bgn/22528.htm"/>
-    <hyperlink ref="Q144" r:id="rId131" display="http://www.state.gov/p/eap/ci/nz/"/>
-    <hyperlink ref="Q145" r:id="rId132" display="http://www.state.gov/p/wha/ci/nu/"/>
-    <hyperlink ref="Q146" r:id="rId133" display="http://www.state.gov/p/af/ci/ng/"/>
-    <hyperlink ref="Q147" r:id="rId134" display="http://www.state.gov/p/af/ci/ni/"/>
-    <hyperlink ref="Q148" r:id="rId135" display="http://www.state.gov/p/eap/ci/kn/"/>
-    <hyperlink ref="Q149" r:id="rId136" display="http://www.state.gov/p/eur/ci/no/"/>
-    <hyperlink ref="Q150" r:id="rId137" display="http://www.state.gov/p/nea/ci/mu"/>
-    <hyperlink ref="Q151" r:id="rId138" display="http://www.state.gov/p/sca/ci/pk/"/>
-    <hyperlink ref="Q152" r:id="rId139" display="http://www.state.gov/p/eap/ci/ps/"/>
-    <hyperlink ref="Q153" r:id="rId140" display="http://www.state.gov/p/nea/ci/pt"/>
-    <hyperlink ref="Q154" r:id="rId141" display="http://www.state.gov/p/wha/ci/pm/"/>
-    <hyperlink ref="Q155" r:id="rId142" display="http://www.state.gov/p/eap/ci/pp/"/>
-    <hyperlink ref="Q156" r:id="rId143" display="http://www.state.gov/p/wha/ci/pa/"/>
-    <hyperlink ref="Q157" r:id="rId144" display="http://www.state.gov/p/wha/ci/pe/"/>
-    <hyperlink ref="Q158" r:id="rId145" display="http://www.state.gov/p/eap/ci/rp/"/>
-    <hyperlink ref="Q159" r:id="rId146" display="http://www.state.gov/p/eur/ci/pl/"/>
-    <hyperlink ref="Q160" r:id="rId147" display="http://www.state.gov/p/eur/ci/po/"/>
-    <hyperlink ref="Q161" r:id="rId148" display="http://www.state.gov/p/nea/ci/qa"/>
-    <hyperlink ref="Q162" r:id="rId149" display="http://www.state.gov/p/eur/ci/ro/"/>
-    <hyperlink ref="Q163" r:id="rId150" display="http://www.state.gov/p/eur/ci/rs/"/>
-    <hyperlink ref="Q164" r:id="rId151" display="http://www.state.gov/p/af/ci/rw/"/>
-    <hyperlink ref="Q165" r:id="rId152" display="http://www.state.gov/p/wha/ci/sc/"/>
-    <hyperlink ref="Q166" r:id="rId153" display="http://www.state.gov/p/wha/ci/st/"/>
-    <hyperlink ref="Q167" r:id="rId154" display="http://www.state.gov/p/wha/ci/vc/"/>
-    <hyperlink ref="Q168" r:id="rId155" display="http://www.state.gov/p/eap/ci/ws/"/>
-    <hyperlink ref="Q169" r:id="rId156" display="http://www.state.gov/p/eur/ci/sm/"/>
-    <hyperlink ref="Q170" r:id="rId157" display="http://www.state.gov/p/af/ci/tp/"/>
-    <hyperlink ref="Q171" r:id="rId158" display="http://www.state.gov/p/nea/ci/sa"/>
-    <hyperlink ref="Q172" r:id="rId159" display="http://www.state.gov/p/af/ci/sg/"/>
-    <hyperlink ref="Q173" r:id="rId160" display="http://www.state.gov/p/eur/ci/ri"/>
-    <hyperlink ref="Q174" r:id="rId161" display="http://www.state.gov/p/af/ci/se/"/>
-    <hyperlink ref="Q175" r:id="rId162" display="http://www.state.gov/p/af/ci/sl/"/>
-    <hyperlink ref="Q176" r:id="rId163" display="http://www.state.gov/p/eap/ci/sn/"/>
-    <hyperlink ref="Q177" r:id="rId164" display="http://www.state.gov/p/eur/ci/nl/"/>
-    <hyperlink ref="Q178" r:id="rId165" display="http://www.state.gov/p/eur/ci/lo/"/>
-    <hyperlink ref="Q179" r:id="rId166" display="http://www.state.gov/p/eur/ci/si/"/>
-    <hyperlink ref="Q180" r:id="rId167" display="http://www.state.gov/p/eap/ci/bp/"/>
-    <hyperlink ref="Q181" r:id="rId168" display="http://www.state.gov/p/af/ci/so/"/>
-    <hyperlink ref="Q182" r:id="rId169" display="http://www.state.gov/p/af/ci/sf/"/>
-    <hyperlink ref="Q183" r:id="rId170" display="http://www.state.gov/p/eap/ci/ks/"/>
-    <hyperlink ref="Q184" r:id="rId171" display="http://www.state.gov/p/af/ci/od/index.htm"/>
-    <hyperlink ref="Q185" r:id="rId172" display="http://www.state.gov/p/eur/ci/sp/"/>
-    <hyperlink ref="Q186" r:id="rId173" display="http://www.state.gov/p/sca/ci/ce/"/>
-    <hyperlink ref="Q187" r:id="rId174" display="http://www.state.gov/p/af/ci/su/"/>
-    <hyperlink ref="Q188" r:id="rId175" display="http://www.state.gov/p/wha/ci/ns/"/>
-    <hyperlink ref="Q189" r:id="rId176" display="http://www.state.gov/p/af/ci/wz/"/>
-    <hyperlink ref="Q190" r:id="rId177" display="http://www.state.gov/p/eur/ci/sw/"/>
-    <hyperlink ref="Q191" r:id="rId178" display="http://www.state.gov/p/eur/ci/sz/"/>
-    <hyperlink ref="Q192" r:id="rId179" display="http://www.state.gov/p/nea/ci/sy"/>
-    <hyperlink ref="Q193" r:id="rId180" display="http://www.state.gov/p/eap/ci/taiwan/"/>
-    <hyperlink ref="Q194" r:id="rId181" display="http://www.state.gov/p/sca/ci/ti/"/>
-    <hyperlink ref="Q195" r:id="rId182" display="http://www.state.gov/p/af/ci/tz/"/>
-    <hyperlink ref="Q196" r:id="rId183" display="http://www.state.gov/p/eap/ci/th/"/>
-    <hyperlink ref="Q197" r:id="rId184" display="http://www.state.gov/p/eap/ci/tt/"/>
-    <hyperlink ref="Q198" r:id="rId185" display="http://www.state.gov/p/af/ci/to/"/>
-    <hyperlink ref="Q199" r:id="rId186" display="http://www.state.gov/p/eap/ci/tn/"/>
-    <hyperlink ref="Q200" r:id="rId187" display="http://www.state.gov/p/wha/ci/td/"/>
-    <hyperlink ref="Q201" r:id="rId188" display="http://www.state.gov/p/nea/ci/ts"/>
-    <hyperlink ref="Q202" r:id="rId189" display="http://www.state.gov/p/eur/ci/tu/"/>
-    <hyperlink ref="Q203" r:id="rId190" display="http://www.state.gov/p/sca/ci/tx/"/>
-    <hyperlink ref="Q204" r:id="rId191" display="http://www.state.gov/p/eap/ci/tv/"/>
-    <hyperlink ref="Q205" r:id="rId192" display="http://www.state.gov/p/af/ci/ug/"/>
-    <hyperlink ref="Q206" r:id="rId193" display="http://www.state.gov/p/eur/ci/up/"/>
-    <hyperlink ref="Q207" r:id="rId194" display="http://www.state.gov/p/nea/ci/ae"/>
-    <hyperlink ref="Q208" r:id="rId195" display="http://www.state.gov/p/eur/ci/uk/"/>
-    <hyperlink ref="Q209" r:id="rId196" display="http://www.state.gov/p/wha/ci/uy/"/>
-    <hyperlink ref="Q210" r:id="rId197" display="http://www.state.gov/p/sca/ci/uz/"/>
-    <hyperlink ref="Q211" r:id="rId198" display="http://www.state.gov/p/eap/ci/nh/"/>
-    <hyperlink ref="Q212" r:id="rId199" display="http://www.state.gov/p/wha/ci/ve/"/>
-    <hyperlink ref="Q213" r:id="rId200" display="http://www.state.gov/p/eap/ci/vm/"/>
-    <hyperlink ref="Q214" r:id="rId201" display="http://www.state.gov/p/nea/ci/ym"/>
-    <hyperlink ref="Q215" r:id="rId202" display="http://www.state.gov/p/af/ci/za/"/>
-    <hyperlink ref="Q216" r:id="rId203" display="http://www.state.gov/p/af/ci/zi/"/>
-    <hyperlink ref="Q60" r:id="rId204" display="http://www.state.gov/p/eur/ci/cy/"/>
-    <hyperlink ref="Q61" r:id="rId205" display="http://www.state.gov/p/eur/ci/ez/"/>
+    <hyperlink ref="Q12" r:id="rId2" display="http://www.state.gov/p/sca/ci/af/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q13" r:id="rId3" display="http://www.state.gov/p/eur/ci/al/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q15" r:id="rId4" display="http://www.state.gov/p/nea/ci/ag" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q16" r:id="rId5" display="http://www.state.gov/p/eur/ci/an/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q17" r:id="rId6" display="http://www.state.gov/p/af/ci/ao/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q18" r:id="rId7" display="http://www.state.gov/p/wha/ci/ac/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q19" r:id="rId8" display="http://www.state.gov/p/wha/ci/ar/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q20" r:id="rId9" display="http://www.state.gov/p/eur/ci/am/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q21" r:id="rId10" display="http://www.state.gov/p/eur/ci/nl/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q22" r:id="rId11" display="http://www.state.gov/p/eap/ci/as/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q23" r:id="rId12" display="http://www.state.gov/p/eur/ci/au/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q24" r:id="rId13" display="http://www.state.gov/p/eur/ci/aj/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q25" r:id="rId14" display="http://www.state.gov/p/wha/ci/bf/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q26" r:id="rId15" display="http://www.state.gov/p/nea/ci/ba" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q27" r:id="rId16" display="http://www.state.gov/p/sca/ci/bg/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q28" r:id="rId17" display="http://www.state.gov/p/wha/ci/bb/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q29" r:id="rId18" display="http://www.state.gov/p/eur/ci/bo/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q30" r:id="rId19" display="http://www.state.gov/p/eur/ci/be/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q31" r:id="rId20" display="http://www.state.gov/p/wha/ci/bh/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q32" r:id="rId21" display="http://www.state.gov/p/af/ci/bn/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q33" r:id="rId22" display="http://www.state.gov/p/sca/ci/bt/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q34" r:id="rId23" display="http://www.state.gov/p/wha/ci/bl/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Q35" r:id="rId24" display="http://www.state.gov/p/eur/ci/bk/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q36" r:id="rId25" display="http://www.state.gov/p/af/ci/bc/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="Q37" r:id="rId26" display="http://www.state.gov/p/wha/ci/br/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q38" r:id="rId27" display="http://www.state.gov/p/eap/ci/bx/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q39" r:id="rId28" display="http://www.state.gov/p/eur/ci/bu/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q40" r:id="rId29" display="http://www.state.gov/p/af/ci/uv/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Q41" r:id="rId30" display="http://www.state.gov/p/eap/ci/bm/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q42" r:id="rId31" display="http://www.state.gov/p/af/ci/by/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Q43" r:id="rId32" display="http://www.state.gov/p/eap/ci/cb/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q44" r:id="rId33" display="http://www.state.gov/p/af/ci/cm/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Q45" r:id="rId34" display="http://www.state.gov/p/wha/ci/ca/" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q46" r:id="rId35" display="http://www.state.gov/p/af/ci/cv/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Q47" r:id="rId36" display="http://www.state.gov/p/af/ci/car/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q48" r:id="rId37" display="http://www.state.gov/p/af/ci/cd/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Q49" r:id="rId38" display="http://www.state.gov/p/wha/ci/ci/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q50" r:id="rId39" display="http://www.state.gov/p/eap/ci/ch/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Q51" r:id="rId40" display="http://www.state.gov/p/wha/ci/co/" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q52" r:id="rId41" display="http://www.state.gov/p/af/ci/cn/" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Q53" r:id="rId42" display="http://www.state.gov/p/af/ci/cg/" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q54" r:id="rId43" display="http://www.state.gov/p/af/ci/cf/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Q55" r:id="rId44" display="http://www.state.gov/p/wha/ci/cs/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q56" r:id="rId45" display="http://www.state.gov/p/af/ci/iv/" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q57" r:id="rId46" display="http://www.state.gov/p/eur/ci/hr/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q58" r:id="rId47" display="http://www.state.gov/p/wha/ci/cu/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Q59" r:id="rId48" display="http://www.state.gov/p/eur/ci/nl/" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q62" r:id="rId49" display="http://www.state.gov/p/af/ci/dj/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q63" r:id="rId50" display="http://www.state.gov/p/wha/ci/do/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q64" r:id="rId51" display="http://www.state.gov/p/wha/ci/dr/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q65" r:id="rId52" display="http://www.state.gov/p/eap/ci/tt/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q66" r:id="rId53" display="http://www.state.gov/p/wha/ci/ec/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q67" r:id="rId54" display="http://www.state.gov/p/nea/ci/eg" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q68" r:id="rId55" display="http://www.state.gov/p/wha/ci/es/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q69" r:id="rId56" display="http://www.state.gov/p/af/ci/ek/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q70" r:id="rId57" display="http://www.state.gov/p/af/ci/er/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="Q71" r:id="rId58" display="http://www.state.gov/p/eur/ci/en/" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q72" r:id="rId59" display="http://www.state.gov/p/af/ci/et/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="Q73" r:id="rId60" display="http://www.state.gov/p/eap/ci/fj/" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q74" r:id="rId61" display="http://www.state.gov/p/eur/ci/fi/" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Q75" r:id="rId62" display="http://www.state.gov/p/eur/ci/fr/" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q76" r:id="rId63" display="http://www.state.gov/p/af/ci/gb/" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="Q77" r:id="rId64" display="http://www.state.gov/p/af/ci/ga/" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q78" r:id="rId65" display="http://www.state.gov/p/eur/ci/gg/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="Q79" r:id="rId66" display="http://www.state.gov/p/eur/ci/gm/" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q80" r:id="rId67" display="http://www.state.gov/p/af/ci/gh/" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="Q81" r:id="rId68" display="http://www.state.gov/p/eur/ci/gr/" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q82" r:id="rId69" display="http://www.state.gov/p/wha/ci/gj/" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="Q83" r:id="rId70" display="http://www.state.gov/p/wha/ci/gt/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q84" r:id="rId71" display="http://www.state.gov/p/af/ci/gv/" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Q85" r:id="rId72" display="http://www.state.gov/p/af/ci/pu/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q86" r:id="rId73" display="http://www.state.gov/p/wha/ci/gy/" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="Q87" r:id="rId74" display="http://www.state.gov/p/wha/ci/ha/" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q88" r:id="rId75" display="http://www.state.gov/p/eur/ci/vt/" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="Q89" r:id="rId76" display="http://www.state.gov/p/wha/ci/ho/" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Q90" r:id="rId77" display="http://www.state.gov/p/eap/ci/ch/index.htm" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="Q91" r:id="rId78" display="http://www.state.gov/p/eur/ci/hu/" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="Q92" r:id="rId79" display="http://www.state.gov/p/eur/ci/ic/" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="Q93" r:id="rId80" display="http://www.state.gov/p/sca/ci/in/" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q94" r:id="rId81" display="http://www.state.gov/p/eap/ci/id/" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="Q95" r:id="rId82" display="http://www.state.gov/p/nea/ci/ir" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="Q96" r:id="rId83" display="http://www.state.gov/p/nea/ci/iz" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="Q97" r:id="rId84" display="http://www.state.gov/p/eur/ci/ei/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="Q98" r:id="rId85" display="http://www.state.gov/p/nea/ci/is/" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="Q99" r:id="rId86" display="http://www.state.gov/p/eur/ci/it/" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="Q100" r:id="rId87" display="http://www.state.gov/p/wha/ci/jm/" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="Q101" r:id="rId88" display="http://www.state.gov/p/eap/ci/ja/" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="Q102" r:id="rId89" display="http://www.state.gov/p/nea/ci/jo/" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="Q103" r:id="rId90" display="http://www.state.gov/p/sca/ci/kz/" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="Q104" r:id="rId91" display="http://www.state.gov/p/af/ci/ke/" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="Q105" r:id="rId92" display="http://www.state.gov/p/eap/ci/kr/" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="Q106" r:id="rId93" display="http://www.state.gov/p/eap/ci/kn/" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="Q107" r:id="rId94" display="http://www.state.gov/p/eap/ci/ks/" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="Q108" r:id="rId95" display="http://www.state.gov/p/eur/ci/kv/" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="Q109" r:id="rId96" display="http://www.state.gov/p/nea/ci/ku" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="Q110" r:id="rId97" display="http://www.state.gov/p/sca/ci/kg/" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="Q111" r:id="rId98" display="http://www.state.gov/p/eap/ci/la/" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="Q112" r:id="rId99" display="http://www.state.gov/p/eur/ci/lg/" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="Q113" r:id="rId100" display="http://www.state.gov/p/nea/ci/le" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="Q114" r:id="rId101" display="http://www.state.gov/p/af/ci/lt/" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="Q115" r:id="rId102" display="http://www.state.gov/p/af/ci/li/" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="Q116" r:id="rId103" display="http://www.state.gov/p/nea/ci/ly" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="Q117" r:id="rId104" display="http://www.state.gov/p/eur/ci/ls/" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="Q118" r:id="rId105" display="http://www.state.gov/p/eur/ci/lh/" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="Q119" r:id="rId106" display="http://www.state.gov/p/eur/ci/lu/" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="Q120" r:id="rId107" display="http://www.state.gov/p/eap/ci/ch/index.htm" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="Q121" r:id="rId108" display="http://www.state.gov/p/eur/ci/mk/" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="Q122" r:id="rId109" display="http://www.state.gov/p/af/ci/ma/" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="Q123" r:id="rId110" display="http://www.state.gov/p/af/ci/mi/" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="Q124" r:id="rId111" display="http://www.state.gov/p/eap/ci/my/" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="Q125" r:id="rId112" display="http://www.state.gov/p/sca/ci/mv/" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="Q126" r:id="rId113" display="http://www.state.gov/p/af/ci/ml/" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="Q127" r:id="rId114" display="http://www.state.gov/p/eur/ci/mt/" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="Q128" r:id="rId115" display="http://www.state.gov/p/eap/ci/rm/" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="Q129" r:id="rId116" display="http://www.state.gov/p/af/ci/mr/" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="Q130" r:id="rId117" display="http://www.state.gov/p/af/ci/mp/" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="Q131" r:id="rId118" display="http://www.state.gov/p/wha/ci/mx/" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="Q132" r:id="rId119" display="http://www.state.gov/p/eap/ci/fm/" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="Q133" r:id="rId120" display="http://www.state.gov/p/eur/ci/md/" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="Q134" r:id="rId121" display="http://www.state.gov/p/eur/ci/mn/" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="Q135" r:id="rId122" display="http://www.state.gov/p/eap/ci/mg/" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="Q136" r:id="rId123" display="http://www.state.gov/p/eur/ci/mj/" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="Q137" r:id="rId124" display="http://www.state.gov/p/nea/ci/mo" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="Q138" r:id="rId125" display="http://www.state.gov/p/af/ci/mz/" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="Q139" r:id="rId126" display="http://www.state.gov/p/af/ci/wa/" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="Q140" r:id="rId127" display="http://www.state.gov/p/eap/ci/nr/" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="Q141" r:id="rId128" display="http://www.state.gov/p/sca/ci/np/" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="Q142" r:id="rId129" display="http://www.state.gov/p/eur/ci/nl/" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="Q143" r:id="rId130" display="http://www.state.gov/r/pa/ei/bgn/22528.htm" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="Q144" r:id="rId131" display="http://www.state.gov/p/eap/ci/nz/" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="Q145" r:id="rId132" display="http://www.state.gov/p/wha/ci/nu/" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="Q146" r:id="rId133" display="http://www.state.gov/p/af/ci/ng/" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="Q147" r:id="rId134" display="http://www.state.gov/p/af/ci/ni/" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="Q148" r:id="rId135" display="http://www.state.gov/p/eap/ci/kn/" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="Q149" r:id="rId136" display="http://www.state.gov/p/eur/ci/no/" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="Q150" r:id="rId137" display="http://www.state.gov/p/nea/ci/mu" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="Q151" r:id="rId138" display="http://www.state.gov/p/sca/ci/pk/" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="Q152" r:id="rId139" display="http://www.state.gov/p/eap/ci/ps/" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="Q153" r:id="rId140" display="http://www.state.gov/p/nea/ci/pt" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="Q154" r:id="rId141" display="http://www.state.gov/p/wha/ci/pm/" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="Q155" r:id="rId142" display="http://www.state.gov/p/eap/ci/pp/" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="Q156" r:id="rId143" display="http://www.state.gov/p/wha/ci/pa/" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="Q157" r:id="rId144" display="http://www.state.gov/p/wha/ci/pe/" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="Q158" r:id="rId145" display="http://www.state.gov/p/eap/ci/rp/" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="Q159" r:id="rId146" display="http://www.state.gov/p/eur/ci/pl/" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="Q160" r:id="rId147" display="http://www.state.gov/p/eur/ci/po/" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="Q161" r:id="rId148" display="http://www.state.gov/p/nea/ci/qa" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="Q162" r:id="rId149" display="http://www.state.gov/p/eur/ci/ro/" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="Q163" r:id="rId150" display="http://www.state.gov/p/eur/ci/rs/" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="Q164" r:id="rId151" display="http://www.state.gov/p/af/ci/rw/" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="Q165" r:id="rId152" display="http://www.state.gov/p/wha/ci/sc/" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="Q166" r:id="rId153" display="http://www.state.gov/p/wha/ci/st/" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="Q167" r:id="rId154" display="http://www.state.gov/p/wha/ci/vc/" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="Q168" r:id="rId155" display="http://www.state.gov/p/eap/ci/ws/" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="Q169" r:id="rId156" display="http://www.state.gov/p/eur/ci/sm/" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="Q170" r:id="rId157" display="http://www.state.gov/p/af/ci/tp/" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="Q171" r:id="rId158" display="http://www.state.gov/p/nea/ci/sa" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="Q172" r:id="rId159" display="http://www.state.gov/p/af/ci/sg/" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="Q173" r:id="rId160" display="http://www.state.gov/p/eur/ci/ri" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="Q174" r:id="rId161" display="http://www.state.gov/p/af/ci/se/" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="Q175" r:id="rId162" display="http://www.state.gov/p/af/ci/sl/" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="Q176" r:id="rId163" display="http://www.state.gov/p/eap/ci/sn/" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="Q177" r:id="rId164" display="http://www.state.gov/p/eur/ci/nl/" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="Q178" r:id="rId165" display="http://www.state.gov/p/eur/ci/lo/" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="Q179" r:id="rId166" display="http://www.state.gov/p/eur/ci/si/" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="Q180" r:id="rId167" display="http://www.state.gov/p/eap/ci/bp/" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="Q181" r:id="rId168" display="http://www.state.gov/p/af/ci/so/" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="Q182" r:id="rId169" display="http://www.state.gov/p/af/ci/sf/" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="Q183" r:id="rId170" display="http://www.state.gov/p/eap/ci/ks/" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="Q184" r:id="rId171" display="http://www.state.gov/p/af/ci/od/index.htm" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="Q185" r:id="rId172" display="http://www.state.gov/p/eur/ci/sp/" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="Q186" r:id="rId173" display="http://www.state.gov/p/sca/ci/ce/" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="Q187" r:id="rId174" display="http://www.state.gov/p/af/ci/su/" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="Q188" r:id="rId175" display="http://www.state.gov/p/wha/ci/ns/" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="Q189" r:id="rId176" display="http://www.state.gov/p/af/ci/wz/" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="Q190" r:id="rId177" display="http://www.state.gov/p/eur/ci/sw/" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="Q191" r:id="rId178" display="http://www.state.gov/p/eur/ci/sz/" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="Q192" r:id="rId179" display="http://www.state.gov/p/nea/ci/sy" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="Q193" r:id="rId180" display="http://www.state.gov/p/eap/ci/taiwan/" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="Q194" r:id="rId181" display="http://www.state.gov/p/sca/ci/ti/" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="Q195" r:id="rId182" display="http://www.state.gov/p/af/ci/tz/" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="Q196" r:id="rId183" display="http://www.state.gov/p/eap/ci/th/" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="Q197" r:id="rId184" display="http://www.state.gov/p/eap/ci/tt/" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="Q198" r:id="rId185" display="http://www.state.gov/p/af/ci/to/" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="Q199" r:id="rId186" display="http://www.state.gov/p/eap/ci/tn/" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="Q200" r:id="rId187" display="http://www.state.gov/p/wha/ci/td/" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="Q201" r:id="rId188" display="http://www.state.gov/p/nea/ci/ts" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="Q202" r:id="rId189" display="http://www.state.gov/p/eur/ci/tu/" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="Q203" r:id="rId190" display="http://www.state.gov/p/sca/ci/tx/" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="Q204" r:id="rId191" display="http://www.state.gov/p/eap/ci/tv/" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="Q205" r:id="rId192" display="http://www.state.gov/p/af/ci/ug/" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="Q206" r:id="rId193" display="http://www.state.gov/p/eur/ci/up/" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="Q207" r:id="rId194" display="http://www.state.gov/p/nea/ci/ae" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="Q208" r:id="rId195" display="http://www.state.gov/p/eur/ci/uk/" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="Q209" r:id="rId196" display="http://www.state.gov/p/wha/ci/uy/" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="Q210" r:id="rId197" display="http://www.state.gov/p/sca/ci/uz/" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="Q211" r:id="rId198" display="http://www.state.gov/p/eap/ci/nh/" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="Q212" r:id="rId199" display="http://www.state.gov/p/wha/ci/ve/" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="Q213" r:id="rId200" display="http://www.state.gov/p/eap/ci/vm/" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="Q214" r:id="rId201" display="http://www.state.gov/p/nea/ci/ym" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="Q215" r:id="rId202" display="http://www.state.gov/p/af/ci/za/" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="Q216" r:id="rId203" display="http://www.state.gov/p/af/ci/zi/" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="Q60" r:id="rId204" display="http://www.state.gov/p/eur/ci/cy/" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="Q61" r:id="rId205" display="http://www.state.gov/p/eur/ci/ez/" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.12" top="0.36" bottom="0.12" header="0.24" footer="0.12"/>
-  <pageSetup paperSize="768" scale="83" fitToHeight="0" orientation="portrait" r:id="rId206"/>
+  <pageSetup paperSize="768" scale="71" fitToHeight="0" orientation="portrait" r:id="rId206"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId207"/>
   <legacyDrawing r:id="rId208"/>
@@ -15693,11 +15919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -15719,76 +15945,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="547"/>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
-      <c r="M1" s="549"/>
+      <c r="A1" s="515"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
+      <c r="K1" s="516"/>
+      <c r="L1" s="516"/>
+      <c r="M1" s="517"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557" t="s">
+      <c r="A2" s="528" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="558"/>
-      <c r="F2" s="558"/>
-      <c r="G2" s="558"/>
-      <c r="H2" s="558"/>
-      <c r="I2" s="558"/>
-      <c r="J2" s="558"/>
-      <c r="K2" s="558"/>
-      <c r="L2" s="558"/>
-      <c r="M2" s="559"/>
+      <c r="B2" s="529"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="529"/>
+      <c r="L2" s="529"/>
+      <c r="M2" s="530"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="550" t="s">
+      <c r="B3" s="518" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="550"/>
-      <c r="D3" s="550"/>
-      <c r="E3" s="551"/>
-      <c r="F3" s="555" t="s">
+      <c r="C3" s="518"/>
+      <c r="D3" s="518"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="526" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="552" t="s">
+      <c r="G3" s="522" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="551"/>
-      <c r="I3" s="552" t="s">
+      <c r="H3" s="519"/>
+      <c r="I3" s="522" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="550"/>
-      <c r="K3" s="551"/>
-      <c r="L3" s="553" t="s">
+      <c r="J3" s="518"/>
+      <c r="K3" s="519"/>
+      <c r="L3" s="524" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="554"/>
+      <c r="M3" s="525"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
-      <c r="D4" s="526"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="556"/>
-      <c r="G4" s="538"/>
-      <c r="H4" s="527"/>
-      <c r="I4" s="538"/>
-      <c r="J4" s="526"/>
-      <c r="K4" s="527"/>
+      <c r="B4" s="520"/>
+      <c r="C4" s="520"/>
+      <c r="D4" s="520"/>
+      <c r="E4" s="521"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="523"/>
+      <c r="H4" s="521"/>
+      <c r="I4" s="523"/>
+      <c r="J4" s="520"/>
+      <c r="K4" s="521"/>
       <c r="L4" s="6" t="s">
         <v>91</v>
       </c>
@@ -15797,143 +16023,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="536"/>
-      <c r="B5" s="511"/>
-      <c r="C5" s="511"/>
-      <c r="D5" s="511"/>
-      <c r="E5" s="511"/>
+      <c r="A5" s="535"/>
+      <c r="B5" s="536"/>
+      <c r="C5" s="536"/>
+      <c r="D5" s="536"/>
+      <c r="E5" s="536"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="535"/>
-      <c r="H5" s="535"/>
-      <c r="I5" s="539"/>
-      <c r="J5" s="539"/>
-      <c r="K5" s="539"/>
+      <c r="G5" s="533"/>
+      <c r="H5" s="533"/>
+      <c r="I5" s="534"/>
+      <c r="J5" s="534"/>
+      <c r="K5" s="534"/>
       <c r="L5" s="11"/>
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="536"/>
-      <c r="B6" s="511"/>
-      <c r="C6" s="511"/>
-      <c r="D6" s="511"/>
-      <c r="E6" s="511"/>
+      <c r="A6" s="535"/>
+      <c r="B6" s="536"/>
+      <c r="C6" s="536"/>
+      <c r="D6" s="536"/>
+      <c r="E6" s="536"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="566"/>
-      <c r="H6" s="567"/>
-      <c r="I6" s="539"/>
-      <c r="J6" s="539"/>
-      <c r="K6" s="539"/>
+      <c r="G6" s="544"/>
+      <c r="H6" s="545"/>
+      <c r="I6" s="534"/>
+      <c r="J6" s="534"/>
+      <c r="K6" s="534"/>
       <c r="L6" s="11"/>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="536"/>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
+      <c r="A7" s="535"/>
+      <c r="B7" s="536"/>
+      <c r="C7" s="536"/>
+      <c r="D7" s="536"/>
+      <c r="E7" s="536"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="535"/>
-      <c r="H7" s="535"/>
-      <c r="I7" s="539"/>
-      <c r="J7" s="539"/>
-      <c r="K7" s="539"/>
+      <c r="G7" s="533"/>
+      <c r="H7" s="533"/>
+      <c r="I7" s="534"/>
+      <c r="J7" s="534"/>
+      <c r="K7" s="534"/>
       <c r="L7" s="11"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="536"/>
-      <c r="B8" s="511"/>
-      <c r="C8" s="511"/>
-      <c r="D8" s="511"/>
-      <c r="E8" s="511"/>
+      <c r="A8" s="535"/>
+      <c r="B8" s="536"/>
+      <c r="C8" s="536"/>
+      <c r="D8" s="536"/>
+      <c r="E8" s="536"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="535"/>
-      <c r="H8" s="535"/>
-      <c r="I8" s="539"/>
-      <c r="J8" s="539"/>
-      <c r="K8" s="539"/>
+      <c r="G8" s="533"/>
+      <c r="H8" s="533"/>
+      <c r="I8" s="534"/>
+      <c r="J8" s="534"/>
+      <c r="K8" s="534"/>
       <c r="L8" s="11"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="536"/>
-      <c r="B9" s="511"/>
-      <c r="C9" s="511"/>
-      <c r="D9" s="511"/>
-      <c r="E9" s="511"/>
+      <c r="A9" s="535"/>
+      <c r="B9" s="536"/>
+      <c r="C9" s="536"/>
+      <c r="D9" s="536"/>
+      <c r="E9" s="536"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="535"/>
-      <c r="H9" s="535"/>
-      <c r="I9" s="539"/>
-      <c r="J9" s="539"/>
-      <c r="K9" s="539"/>
+      <c r="G9" s="533"/>
+      <c r="H9" s="533"/>
+      <c r="I9" s="534"/>
+      <c r="J9" s="534"/>
+      <c r="K9" s="534"/>
       <c r="L9" s="11"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="536"/>
-      <c r="B10" s="511"/>
-      <c r="C10" s="511"/>
-      <c r="D10" s="511"/>
-      <c r="E10" s="511"/>
+      <c r="A10" s="535"/>
+      <c r="B10" s="536"/>
+      <c r="C10" s="536"/>
+      <c r="D10" s="536"/>
+      <c r="E10" s="536"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="535"/>
-      <c r="H10" s="535"/>
-      <c r="I10" s="539"/>
-      <c r="J10" s="539"/>
-      <c r="K10" s="539"/>
+      <c r="G10" s="533"/>
+      <c r="H10" s="533"/>
+      <c r="I10" s="534"/>
+      <c r="J10" s="534"/>
+      <c r="K10" s="534"/>
       <c r="L10" s="11"/>
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="523"/>
-      <c r="B11" s="518"/>
-      <c r="C11" s="518"/>
-      <c r="D11" s="518"/>
-      <c r="E11" s="518"/>
+      <c r="A11" s="551"/>
+      <c r="B11" s="552"/>
+      <c r="C11" s="552"/>
+      <c r="D11" s="552"/>
+      <c r="E11" s="552"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="534"/>
-      <c r="H11" s="534"/>
-      <c r="I11" s="540"/>
-      <c r="J11" s="540"/>
-      <c r="K11" s="540"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
+      <c r="K11" s="546"/>
       <c r="L11" s="13"/>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="528" t="s">
+      <c r="A12" s="553" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="529"/>
-      <c r="C12" s="529"/>
-      <c r="D12" s="529"/>
-      <c r="E12" s="529"/>
-      <c r="F12" s="529"/>
-      <c r="G12" s="529"/>
-      <c r="H12" s="529"/>
-      <c r="I12" s="529"/>
-      <c r="J12" s="529"/>
-      <c r="K12" s="529"/>
-      <c r="L12" s="529"/>
-      <c r="M12" s="530"/>
+      <c r="B12" s="554"/>
+      <c r="C12" s="554"/>
+      <c r="D12" s="554"/>
+      <c r="E12" s="554"/>
+      <c r="F12" s="554"/>
+      <c r="G12" s="554"/>
+      <c r="H12" s="554"/>
+      <c r="I12" s="554"/>
+      <c r="J12" s="554"/>
+      <c r="K12" s="554"/>
+      <c r="L12" s="554"/>
+      <c r="M12" s="555"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="531" t="s">
+      <c r="A13" s="556" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="532"/>
-      <c r="C13" s="532"/>
-      <c r="D13" s="532"/>
-      <c r="E13" s="532"/>
-      <c r="F13" s="532"/>
-      <c r="G13" s="532"/>
-      <c r="H13" s="532"/>
-      <c r="I13" s="532"/>
-      <c r="J13" s="532"/>
-      <c r="K13" s="532"/>
-      <c r="L13" s="532"/>
-      <c r="M13" s="533"/>
+      <c r="B13" s="557"/>
+      <c r="C13" s="557"/>
+      <c r="D13" s="557"/>
+      <c r="E13" s="557"/>
+      <c r="F13" s="557"/>
+      <c r="G13" s="557"/>
+      <c r="H13" s="557"/>
+      <c r="I13" s="557"/>
+      <c r="J13" s="557"/>
+      <c r="K13" s="557"/>
+      <c r="L13" s="557"/>
+      <c r="M13" s="558"/>
     </row>
     <row r="14" spans="1:13" s="244" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="251" t="s">
@@ -15956,515 +16182,515 @@
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="524" t="s">
+      <c r="B15" s="542" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="525"/>
-      <c r="D15" s="537" t="s">
+      <c r="C15" s="543"/>
+      <c r="D15" s="541" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="524"/>
-      <c r="F15" s="525"/>
-      <c r="G15" s="537" t="s">
+      <c r="E15" s="542"/>
+      <c r="F15" s="543"/>
+      <c r="G15" s="541" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="524"/>
-      <c r="I15" s="525"/>
-      <c r="J15" s="541" t="s">
+      <c r="H15" s="542"/>
+      <c r="I15" s="543"/>
+      <c r="J15" s="547" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="562" t="s">
+      <c r="K15" s="537" t="s">
         <v>347</v>
       </c>
-      <c r="L15" s="516" t="s">
+      <c r="L15" s="562" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="560" t="s">
+      <c r="M15" s="531" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="526"/>
-      <c r="C16" s="527"/>
-      <c r="D16" s="537"/>
-      <c r="E16" s="524"/>
-      <c r="F16" s="525"/>
-      <c r="G16" s="537"/>
-      <c r="H16" s="524"/>
-      <c r="I16" s="525"/>
-      <c r="J16" s="541"/>
-      <c r="K16" s="562"/>
-      <c r="L16" s="516"/>
-      <c r="M16" s="560"/>
+      <c r="B16" s="520"/>
+      <c r="C16" s="521"/>
+      <c r="D16" s="541"/>
+      <c r="E16" s="542"/>
+      <c r="F16" s="543"/>
+      <c r="G16" s="541"/>
+      <c r="H16" s="542"/>
+      <c r="I16" s="543"/>
+      <c r="J16" s="547"/>
+      <c r="K16" s="537"/>
+      <c r="L16" s="562"/>
+      <c r="M16" s="531"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="564" t="s">
+      <c r="A17" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="565"/>
+      <c r="B17" s="540"/>
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="538"/>
-      <c r="E17" s="526"/>
-      <c r="F17" s="527"/>
-      <c r="G17" s="538"/>
-      <c r="H17" s="526"/>
-      <c r="I17" s="527"/>
-      <c r="J17" s="542"/>
-      <c r="K17" s="563"/>
-      <c r="L17" s="517"/>
-      <c r="M17" s="561"/>
+      <c r="D17" s="523"/>
+      <c r="E17" s="520"/>
+      <c r="F17" s="521"/>
+      <c r="G17" s="523"/>
+      <c r="H17" s="520"/>
+      <c r="I17" s="521"/>
+      <c r="J17" s="548"/>
+      <c r="K17" s="538"/>
+      <c r="L17" s="563"/>
+      <c r="M17" s="532"/>
     </row>
     <row r="18" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="512"/>
-      <c r="B18" s="513"/>
+      <c r="A18" s="549"/>
+      <c r="B18" s="550"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="511"/>
-      <c r="E18" s="511"/>
-      <c r="F18" s="511"/>
-      <c r="G18" s="511"/>
-      <c r="H18" s="511"/>
-      <c r="I18" s="511"/>
+      <c r="D18" s="536"/>
+      <c r="E18" s="536"/>
+      <c r="F18" s="536"/>
+      <c r="G18" s="536"/>
+      <c r="H18" s="536"/>
+      <c r="I18" s="536"/>
       <c r="J18" s="16"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="512"/>
-      <c r="B19" s="513"/>
+      <c r="A19" s="549"/>
+      <c r="B19" s="550"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="511"/>
-      <c r="E19" s="511"/>
-      <c r="F19" s="511"/>
-      <c r="G19" s="511"/>
-      <c r="H19" s="511"/>
-      <c r="I19" s="511"/>
+      <c r="D19" s="536"/>
+      <c r="E19" s="536"/>
+      <c r="F19" s="536"/>
+      <c r="G19" s="536"/>
+      <c r="H19" s="536"/>
+      <c r="I19" s="536"/>
       <c r="J19" s="16"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="512"/>
-      <c r="B20" s="513"/>
+      <c r="A20" s="549"/>
+      <c r="B20" s="550"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="511"/>
-      <c r="E20" s="511"/>
-      <c r="F20" s="511"/>
-      <c r="G20" s="511"/>
-      <c r="H20" s="511"/>
-      <c r="I20" s="511"/>
+      <c r="D20" s="536"/>
+      <c r="E20" s="536"/>
+      <c r="F20" s="536"/>
+      <c r="G20" s="536"/>
+      <c r="H20" s="536"/>
+      <c r="I20" s="536"/>
       <c r="J20" s="16"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="512"/>
-      <c r="B21" s="513"/>
+      <c r="A21" s="549"/>
+      <c r="B21" s="550"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="511"/>
-      <c r="E21" s="511"/>
-      <c r="F21" s="511"/>
-      <c r="G21" s="511"/>
-      <c r="H21" s="511"/>
-      <c r="I21" s="511"/>
+      <c r="D21" s="536"/>
+      <c r="E21" s="536"/>
+      <c r="F21" s="536"/>
+      <c r="G21" s="536"/>
+      <c r="H21" s="536"/>
+      <c r="I21" s="536"/>
       <c r="J21" s="16"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="512"/>
-      <c r="B22" s="513"/>
+      <c r="A22" s="549"/>
+      <c r="B22" s="550"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="511"/>
-      <c r="F22" s="511"/>
-      <c r="G22" s="511"/>
-      <c r="H22" s="511"/>
-      <c r="I22" s="511"/>
+      <c r="D22" s="536"/>
+      <c r="E22" s="536"/>
+      <c r="F22" s="536"/>
+      <c r="G22" s="536"/>
+      <c r="H22" s="536"/>
+      <c r="I22" s="536"/>
       <c r="J22" s="16"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="512"/>
-      <c r="B23" s="513"/>
+      <c r="A23" s="549"/>
+      <c r="B23" s="550"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="511"/>
-      <c r="E23" s="511"/>
-      <c r="F23" s="511"/>
-      <c r="G23" s="511"/>
-      <c r="H23" s="511"/>
-      <c r="I23" s="511"/>
+      <c r="D23" s="536"/>
+      <c r="E23" s="536"/>
+      <c r="F23" s="536"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="536"/>
+      <c r="I23" s="536"/>
       <c r="J23" s="16"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="512"/>
-      <c r="B24" s="513"/>
+      <c r="A24" s="549"/>
+      <c r="B24" s="550"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="511"/>
-      <c r="F24" s="511"/>
-      <c r="G24" s="511"/>
-      <c r="H24" s="511"/>
-      <c r="I24" s="511"/>
+      <c r="D24" s="536"/>
+      <c r="E24" s="536"/>
+      <c r="F24" s="536"/>
+      <c r="G24" s="536"/>
+      <c r="H24" s="536"/>
+      <c r="I24" s="536"/>
       <c r="J24" s="16"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="512"/>
-      <c r="B25" s="513"/>
+      <c r="A25" s="549"/>
+      <c r="B25" s="550"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="511"/>
-      <c r="E25" s="511"/>
-      <c r="F25" s="511"/>
-      <c r="G25" s="511"/>
-      <c r="H25" s="511"/>
-      <c r="I25" s="511"/>
+      <c r="D25" s="536"/>
+      <c r="E25" s="536"/>
+      <c r="F25" s="536"/>
+      <c r="G25" s="536"/>
+      <c r="H25" s="536"/>
+      <c r="I25" s="536"/>
       <c r="J25" s="16"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="512"/>
-      <c r="B26" s="513"/>
+      <c r="A26" s="549"/>
+      <c r="B26" s="550"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="511"/>
-      <c r="E26" s="511"/>
-      <c r="F26" s="511"/>
-      <c r="G26" s="511"/>
-      <c r="H26" s="511"/>
-      <c r="I26" s="511"/>
+      <c r="D26" s="536"/>
+      <c r="E26" s="536"/>
+      <c r="F26" s="536"/>
+      <c r="G26" s="536"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="536"/>
       <c r="J26" s="16"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="512"/>
-      <c r="B27" s="513"/>
+      <c r="A27" s="549"/>
+      <c r="B27" s="550"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="511"/>
-      <c r="E27" s="511"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="511"/>
-      <c r="H27" s="511"/>
-      <c r="I27" s="511"/>
+      <c r="D27" s="536"/>
+      <c r="E27" s="536"/>
+      <c r="F27" s="536"/>
+      <c r="G27" s="536"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="536"/>
       <c r="J27" s="16"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="512"/>
-      <c r="B28" s="513"/>
+      <c r="A28" s="549"/>
+      <c r="B28" s="550"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="511"/>
-      <c r="F28" s="511"/>
-      <c r="G28" s="511"/>
-      <c r="H28" s="511"/>
-      <c r="I28" s="511"/>
+      <c r="D28" s="536"/>
+      <c r="E28" s="536"/>
+      <c r="F28" s="536"/>
+      <c r="G28" s="536"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="536"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="512"/>
-      <c r="B29" s="513"/>
+      <c r="A29" s="549"/>
+      <c r="B29" s="550"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="511"/>
-      <c r="E29" s="511"/>
-      <c r="F29" s="511"/>
-      <c r="G29" s="511"/>
-      <c r="H29" s="511"/>
-      <c r="I29" s="511"/>
+      <c r="D29" s="536"/>
+      <c r="E29" s="536"/>
+      <c r="F29" s="536"/>
+      <c r="G29" s="536"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="536"/>
       <c r="J29" s="16"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="512"/>
-      <c r="B30" s="513"/>
+      <c r="A30" s="549"/>
+      <c r="B30" s="550"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="511"/>
-      <c r="E30" s="511"/>
-      <c r="F30" s="511"/>
-      <c r="G30" s="511"/>
-      <c r="H30" s="511"/>
-      <c r="I30" s="511"/>
+      <c r="D30" s="536"/>
+      <c r="E30" s="536"/>
+      <c r="F30" s="536"/>
+      <c r="G30" s="536"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="536"/>
       <c r="J30" s="16"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="512"/>
-      <c r="B31" s="513"/>
+      <c r="A31" s="549"/>
+      <c r="B31" s="550"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="511"/>
-      <c r="E31" s="511"/>
-      <c r="F31" s="511"/>
-      <c r="G31" s="511"/>
-      <c r="H31" s="511"/>
-      <c r="I31" s="511"/>
+      <c r="D31" s="536"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="536"/>
+      <c r="G31" s="536"/>
+      <c r="H31" s="536"/>
+      <c r="I31" s="536"/>
       <c r="J31" s="16"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="512"/>
-      <c r="B32" s="513"/>
+      <c r="A32" s="549"/>
+      <c r="B32" s="550"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="511"/>
-      <c r="E32" s="511"/>
-      <c r="F32" s="511"/>
-      <c r="G32" s="511"/>
-      <c r="H32" s="511"/>
-      <c r="I32" s="511"/>
+      <c r="D32" s="536"/>
+      <c r="E32" s="536"/>
+      <c r="F32" s="536"/>
+      <c r="G32" s="536"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="536"/>
       <c r="J32" s="16"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="512"/>
-      <c r="B33" s="513"/>
+      <c r="A33" s="549"/>
+      <c r="B33" s="550"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="511"/>
-      <c r="E33" s="511"/>
-      <c r="F33" s="511"/>
-      <c r="G33" s="511"/>
-      <c r="H33" s="511"/>
-      <c r="I33" s="511"/>
+      <c r="D33" s="536"/>
+      <c r="E33" s="536"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="536"/>
       <c r="J33" s="16"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="512"/>
-      <c r="B34" s="513"/>
+      <c r="A34" s="549"/>
+      <c r="B34" s="550"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="511"/>
-      <c r="E34" s="511"/>
-      <c r="F34" s="511"/>
-      <c r="G34" s="511"/>
-      <c r="H34" s="511"/>
-      <c r="I34" s="511"/>
+      <c r="D34" s="536"/>
+      <c r="E34" s="536"/>
+      <c r="F34" s="536"/>
+      <c r="G34" s="536"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="536"/>
       <c r="J34" s="16"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:14" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="512"/>
-      <c r="B35" s="513"/>
+      <c r="A35" s="549"/>
+      <c r="B35" s="550"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
-      <c r="F35" s="511"/>
-      <c r="G35" s="511"/>
-      <c r="H35" s="511"/>
-      <c r="I35" s="511"/>
+      <c r="D35" s="536"/>
+      <c r="E35" s="536"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="536"/>
       <c r="J35" s="16"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="512"/>
-      <c r="B36" s="513"/>
+      <c r="A36" s="549"/>
+      <c r="B36" s="550"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="511"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="511"/>
-      <c r="G36" s="511"/>
-      <c r="H36" s="511"/>
-      <c r="I36" s="511"/>
+      <c r="D36" s="536"/>
+      <c r="E36" s="536"/>
+      <c r="F36" s="536"/>
+      <c r="G36" s="536"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="536"/>
       <c r="J36" s="16"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="512"/>
-      <c r="B37" s="513"/>
+      <c r="A37" s="549"/>
+      <c r="B37" s="550"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="511"/>
-      <c r="E37" s="511"/>
-      <c r="F37" s="511"/>
-      <c r="G37" s="511"/>
-      <c r="H37" s="511"/>
-      <c r="I37" s="511"/>
+      <c r="D37" s="536"/>
+      <c r="E37" s="536"/>
+      <c r="F37" s="536"/>
+      <c r="G37" s="536"/>
+      <c r="H37" s="536"/>
+      <c r="I37" s="536"/>
       <c r="J37" s="16"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="512"/>
-      <c r="B38" s="513"/>
+      <c r="A38" s="549"/>
+      <c r="B38" s="550"/>
       <c r="C38" s="27"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="511"/>
-      <c r="H38" s="511"/>
-      <c r="I38" s="511"/>
+      <c r="D38" s="536"/>
+      <c r="E38" s="536"/>
+      <c r="F38" s="536"/>
+      <c r="G38" s="536"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="536"/>
       <c r="J38" s="16"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="512"/>
-      <c r="B39" s="513"/>
+      <c r="A39" s="549"/>
+      <c r="B39" s="550"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="511"/>
-      <c r="E39" s="511"/>
-      <c r="F39" s="511"/>
-      <c r="G39" s="511"/>
-      <c r="H39" s="511"/>
-      <c r="I39" s="511"/>
+      <c r="D39" s="536"/>
+      <c r="E39" s="536"/>
+      <c r="F39" s="536"/>
+      <c r="G39" s="536"/>
+      <c r="H39" s="536"/>
+      <c r="I39" s="536"/>
       <c r="J39" s="16"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="512"/>
-      <c r="B40" s="513"/>
+      <c r="A40" s="549"/>
+      <c r="B40" s="550"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="511"/>
-      <c r="F40" s="511"/>
-      <c r="G40" s="511"/>
-      <c r="H40" s="511"/>
-      <c r="I40" s="511"/>
+      <c r="D40" s="536"/>
+      <c r="E40" s="536"/>
+      <c r="F40" s="536"/>
+      <c r="G40" s="536"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="536"/>
       <c r="J40" s="16"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="512"/>
-      <c r="B41" s="513"/>
+      <c r="A41" s="549"/>
+      <c r="B41" s="550"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="511"/>
-      <c r="E41" s="511"/>
-      <c r="F41" s="511"/>
-      <c r="G41" s="511"/>
-      <c r="H41" s="511"/>
-      <c r="I41" s="511"/>
+      <c r="D41" s="536"/>
+      <c r="E41" s="536"/>
+      <c r="F41" s="536"/>
+      <c r="G41" s="536"/>
+      <c r="H41" s="536"/>
+      <c r="I41" s="536"/>
       <c r="J41" s="16"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="512"/>
-      <c r="B42" s="513"/>
+      <c r="A42" s="549"/>
+      <c r="B42" s="550"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="511"/>
-      <c r="F42" s="511"/>
-      <c r="G42" s="511"/>
-      <c r="H42" s="511"/>
-      <c r="I42" s="511"/>
+      <c r="D42" s="536"/>
+      <c r="E42" s="536"/>
+      <c r="F42" s="536"/>
+      <c r="G42" s="536"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="536"/>
       <c r="J42" s="16"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="512"/>
-      <c r="B43" s="513"/>
+      <c r="A43" s="549"/>
+      <c r="B43" s="550"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="511"/>
-      <c r="E43" s="511"/>
-      <c r="F43" s="511"/>
-      <c r="G43" s="511"/>
-      <c r="H43" s="511"/>
-      <c r="I43" s="511"/>
+      <c r="D43" s="536"/>
+      <c r="E43" s="536"/>
+      <c r="F43" s="536"/>
+      <c r="G43" s="536"/>
+      <c r="H43" s="536"/>
+      <c r="I43" s="536"/>
       <c r="J43" s="16"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="512"/>
-      <c r="B44" s="513"/>
+      <c r="A44" s="549"/>
+      <c r="B44" s="550"/>
       <c r="C44" s="239"/>
-      <c r="D44" s="511"/>
-      <c r="E44" s="511"/>
-      <c r="F44" s="511"/>
-      <c r="G44" s="511"/>
-      <c r="H44" s="511"/>
-      <c r="I44" s="511"/>
+      <c r="D44" s="536"/>
+      <c r="E44" s="536"/>
+      <c r="F44" s="536"/>
+      <c r="G44" s="536"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="536"/>
       <c r="J44" s="16"/>
       <c r="K44" s="240"/>
       <c r="L44" s="240"/>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="514"/>
-      <c r="B45" s="515"/>
+      <c r="A45" s="560"/>
+      <c r="B45" s="561"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="518"/>
-      <c r="E45" s="518"/>
-      <c r="F45" s="518"/>
-      <c r="G45" s="518"/>
-      <c r="H45" s="518"/>
-      <c r="I45" s="518"/>
+      <c r="D45" s="552"/>
+      <c r="E45" s="552"/>
+      <c r="F45" s="552"/>
+      <c r="G45" s="552"/>
+      <c r="H45" s="552"/>
+      <c r="I45" s="552"/>
       <c r="J45" s="17"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="519" t="s">
+      <c r="A46" s="564" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="520"/>
-      <c r="C46" s="520"/>
-      <c r="D46" s="520"/>
-      <c r="E46" s="520"/>
-      <c r="F46" s="520"/>
-      <c r="G46" s="520"/>
-      <c r="H46" s="520"/>
-      <c r="I46" s="520"/>
-      <c r="J46" s="520"/>
-      <c r="K46" s="521"/>
-      <c r="L46" s="521"/>
-      <c r="M46" s="522"/>
+      <c r="B46" s="565"/>
+      <c r="C46" s="565"/>
+      <c r="D46" s="565"/>
+      <c r="E46" s="565"/>
+      <c r="F46" s="565"/>
+      <c r="G46" s="565"/>
+      <c r="H46" s="565"/>
+      <c r="I46" s="565"/>
+      <c r="J46" s="565"/>
+      <c r="K46" s="566"/>
+      <c r="L46" s="566"/>
+      <c r="M46" s="567"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="487" t="s">
+      <c r="A47" s="320" t="s">
         <v>393</v>
       </c>
-      <c r="B47" s="488"/>
-      <c r="C47" s="489"/>
-      <c r="D47" s="544"/>
-      <c r="E47" s="545"/>
-      <c r="F47" s="545"/>
-      <c r="G47" s="545"/>
-      <c r="H47" s="546"/>
+      <c r="B47" s="321"/>
+      <c r="C47" s="322"/>
+      <c r="D47" s="512"/>
+      <c r="E47" s="513"/>
+      <c r="F47" s="513"/>
+      <c r="G47" s="513"/>
+      <c r="H47" s="514"/>
       <c r="I47" s="295" t="s">
         <v>394</v>
       </c>
@@ -16475,21 +16701,21 @@
       <c r="N47" s="298"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="543" t="s">
+      <c r="A48" s="511" t="s">
         <v>399</v>
       </c>
-      <c r="B48" s="543"/>
-      <c r="C48" s="543"/>
-      <c r="D48" s="543"/>
-      <c r="E48" s="543"/>
-      <c r="F48" s="543"/>
-      <c r="G48" s="543"/>
-      <c r="H48" s="543"/>
-      <c r="I48" s="543"/>
-      <c r="J48" s="543"/>
-      <c r="K48" s="543"/>
-      <c r="L48" s="543"/>
-      <c r="M48" s="543"/>
+      <c r="B48" s="511"/>
+      <c r="C48" s="511"/>
+      <c r="D48" s="511"/>
+      <c r="E48" s="511"/>
+      <c r="F48" s="511"/>
+      <c r="G48" s="511"/>
+      <c r="H48" s="511"/>
+      <c r="I48" s="511"/>
+      <c r="J48" s="511"/>
+      <c r="K48" s="511"/>
+      <c r="L48" s="511"/>
+      <c r="M48" s="511"/>
       <c r="N48" s="302"/>
     </row>
   </sheetData>
@@ -16503,6 +16729,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="A1:M1"/>
@@ -16527,123 +16855,21 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0" top="0.17" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="768" scale="88" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="768" scale="77" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="I44" sqref="I44:K44"/>
     </sheetView>
   </sheetViews>
@@ -16665,295 +16891,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="598"/>
-      <c r="B1" s="599"/>
-      <c r="C1" s="599"/>
-      <c r="D1" s="599"/>
-      <c r="E1" s="599"/>
-      <c r="F1" s="599"/>
-      <c r="G1" s="599"/>
-      <c r="H1" s="599"/>
-      <c r="I1" s="599"/>
-      <c r="J1" s="599"/>
-      <c r="K1" s="600"/>
+      <c r="A1" s="601"/>
+      <c r="B1" s="602"/>
+      <c r="C1" s="602"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="603"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="625" t="s">
+      <c r="A2" s="629" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="626"/>
-      <c r="C2" s="626"/>
-      <c r="D2" s="626"/>
-      <c r="E2" s="626"/>
-      <c r="F2" s="626"/>
-      <c r="G2" s="626"/>
-      <c r="H2" s="626"/>
-      <c r="I2" s="626"/>
-      <c r="J2" s="626"/>
-      <c r="K2" s="627"/>
+      <c r="B2" s="630"/>
+      <c r="C2" s="630"/>
+      <c r="D2" s="630"/>
+      <c r="E2" s="630"/>
+      <c r="F2" s="630"/>
+      <c r="G2" s="630"/>
+      <c r="H2" s="630"/>
+      <c r="I2" s="630"/>
+      <c r="J2" s="630"/>
+      <c r="K2" s="631"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="609" t="s">
+      <c r="A3" s="612" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="610" t="s">
+      <c r="B3" s="614" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="610"/>
-      <c r="D3" s="611"/>
-      <c r="E3" s="550" t="s">
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="518" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="642" t="s">
+      <c r="F3" s="519"/>
+      <c r="G3" s="585" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="552" t="s">
+      <c r="H3" s="522" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="617"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="622"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="594"/>
-      <c r="B4" s="612"/>
-      <c r="C4" s="612"/>
-      <c r="D4" s="613"/>
-      <c r="E4" s="526"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="562"/>
-      <c r="H4" s="619"/>
-      <c r="I4" s="620"/>
-      <c r="J4" s="620"/>
-      <c r="K4" s="621"/>
+      <c r="A4" s="613"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
+      <c r="E4" s="520"/>
+      <c r="F4" s="521"/>
+      <c r="G4" s="537"/>
+      <c r="H4" s="623"/>
+      <c r="I4" s="624"/>
+      <c r="J4" s="624"/>
+      <c r="K4" s="625"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
-      <c r="B5" s="640"/>
-      <c r="C5" s="640"/>
-      <c r="D5" s="641"/>
+      <c r="B5" s="580"/>
+      <c r="C5" s="580"/>
+      <c r="D5" s="581"/>
       <c r="E5" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="563"/>
-      <c r="H5" s="622"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
+      <c r="G5" s="538"/>
+      <c r="H5" s="626"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="577"/>
-      <c r="B6" s="578"/>
-      <c r="C6" s="578"/>
-      <c r="D6" s="579"/>
+      <c r="A6" s="582"/>
+      <c r="B6" s="583"/>
+      <c r="C6" s="583"/>
+      <c r="D6" s="584"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="581"/>
-      <c r="J6" s="581"/>
-      <c r="K6" s="582"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="587"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="577"/>
-      <c r="B7" s="578"/>
-      <c r="C7" s="578"/>
-      <c r="D7" s="579"/>
+      <c r="A7" s="582"/>
+      <c r="B7" s="583"/>
+      <c r="C7" s="583"/>
+      <c r="D7" s="584"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="580"/>
-      <c r="I7" s="581"/>
-      <c r="J7" s="581"/>
-      <c r="K7" s="582"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="587"/>
+      <c r="J7" s="587"/>
+      <c r="K7" s="588"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="577"/>
-      <c r="B8" s="578"/>
-      <c r="C8" s="578"/>
-      <c r="D8" s="579"/>
+      <c r="A8" s="582"/>
+      <c r="B8" s="583"/>
+      <c r="C8" s="583"/>
+      <c r="D8" s="584"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="580"/>
-      <c r="I8" s="581"/>
-      <c r="J8" s="581"/>
-      <c r="K8" s="582"/>
+      <c r="H8" s="586"/>
+      <c r="I8" s="587"/>
+      <c r="J8" s="587"/>
+      <c r="K8" s="588"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="577"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="578"/>
-      <c r="D9" s="579"/>
+      <c r="A9" s="582"/>
+      <c r="B9" s="583"/>
+      <c r="C9" s="583"/>
+      <c r="D9" s="584"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="580"/>
-      <c r="I9" s="581"/>
-      <c r="J9" s="581"/>
-      <c r="K9" s="582"/>
+      <c r="H9" s="586"/>
+      <c r="I9" s="587"/>
+      <c r="J9" s="587"/>
+      <c r="K9" s="588"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="577"/>
-      <c r="B10" s="578"/>
-      <c r="C10" s="578"/>
-      <c r="D10" s="579"/>
+      <c r="A10" s="582"/>
+      <c r="B10" s="583"/>
+      <c r="C10" s="583"/>
+      <c r="D10" s="584"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="580"/>
-      <c r="I10" s="581"/>
-      <c r="J10" s="581"/>
-      <c r="K10" s="582"/>
+      <c r="H10" s="586"/>
+      <c r="I10" s="587"/>
+      <c r="J10" s="587"/>
+      <c r="K10" s="588"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="577"/>
-      <c r="B11" s="578"/>
-      <c r="C11" s="578"/>
-      <c r="D11" s="579"/>
+      <c r="A11" s="582"/>
+      <c r="B11" s="583"/>
+      <c r="C11" s="583"/>
+      <c r="D11" s="584"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="580"/>
-      <c r="I11" s="581"/>
-      <c r="J11" s="581"/>
-      <c r="K11" s="582"/>
+      <c r="H11" s="586"/>
+      <c r="I11" s="587"/>
+      <c r="J11" s="587"/>
+      <c r="K11" s="588"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="614"/>
-      <c r="B12" s="615"/>
-      <c r="C12" s="615"/>
-      <c r="D12" s="616"/>
+      <c r="A12" s="618"/>
+      <c r="B12" s="619"/>
+      <c r="C12" s="619"/>
+      <c r="D12" s="620"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="632"/>
-      <c r="I12" s="633"/>
-      <c r="J12" s="633"/>
-      <c r="K12" s="634"/>
+      <c r="H12" s="642"/>
+      <c r="I12" s="643"/>
+      <c r="J12" s="643"/>
+      <c r="K12" s="644"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="528" t="s">
+      <c r="A13" s="553" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="529"/>
-      <c r="C13" s="529"/>
-      <c r="D13" s="529"/>
-      <c r="E13" s="529"/>
-      <c r="F13" s="529"/>
-      <c r="G13" s="529"/>
-      <c r="H13" s="529"/>
-      <c r="I13" s="529"/>
-      <c r="J13" s="529"/>
-      <c r="K13" s="530"/>
+      <c r="B13" s="554"/>
+      <c r="C13" s="554"/>
+      <c r="D13" s="554"/>
+      <c r="E13" s="554"/>
+      <c r="F13" s="554"/>
+      <c r="G13" s="554"/>
+      <c r="H13" s="554"/>
+      <c r="I13" s="554"/>
+      <c r="J13" s="554"/>
+      <c r="K13" s="555"/>
     </row>
     <row r="14" spans="1:11" s="158" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="635" t="s">
+      <c r="A14" s="645" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="636"/>
-      <c r="C14" s="636"/>
-      <c r="D14" s="636"/>
-      <c r="E14" s="636"/>
-      <c r="F14" s="636"/>
-      <c r="G14" s="636"/>
-      <c r="H14" s="636"/>
-      <c r="I14" s="636"/>
-      <c r="J14" s="636"/>
-      <c r="K14" s="637"/>
+      <c r="B14" s="646"/>
+      <c r="C14" s="646"/>
+      <c r="D14" s="646"/>
+      <c r="E14" s="646"/>
+      <c r="F14" s="646"/>
+      <c r="G14" s="646"/>
+      <c r="H14" s="646"/>
+      <c r="I14" s="646"/>
+      <c r="J14" s="646"/>
+      <c r="K14" s="647"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="606" t="s">
+      <c r="A15" s="609" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="607"/>
-      <c r="C15" s="607"/>
-      <c r="D15" s="607"/>
-      <c r="E15" s="607"/>
-      <c r="F15" s="607"/>
-      <c r="G15" s="607"/>
-      <c r="H15" s="607"/>
-      <c r="I15" s="607"/>
-      <c r="J15" s="607"/>
-      <c r="K15" s="608"/>
+      <c r="B15" s="610"/>
+      <c r="C15" s="610"/>
+      <c r="D15" s="610"/>
+      <c r="E15" s="610"/>
+      <c r="F15" s="610"/>
+      <c r="G15" s="610"/>
+      <c r="H15" s="610"/>
+      <c r="I15" s="610"/>
+      <c r="J15" s="610"/>
+      <c r="K15" s="611"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="594" t="s">
+      <c r="A16" s="613" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="524" t="s">
+      <c r="B16" s="542" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="601"/>
-      <c r="D16" s="602"/>
-      <c r="E16" s="524" t="s">
+      <c r="C16" s="604"/>
+      <c r="D16" s="605"/>
+      <c r="E16" s="542" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="525"/>
-      <c r="G16" s="562" t="s">
+      <c r="F16" s="543"/>
+      <c r="G16" s="537" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="541" t="s">
+      <c r="H16" s="547" t="s">
         <v>339</v>
       </c>
-      <c r="I16" s="537" t="s">
+      <c r="I16" s="541" t="s">
         <v>361</v>
       </c>
-      <c r="J16" s="601"/>
-      <c r="K16" s="628"/>
+      <c r="J16" s="604"/>
+      <c r="K16" s="632"/>
     </row>
     <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="594"/>
-      <c r="B17" s="603"/>
-      <c r="C17" s="603"/>
-      <c r="D17" s="602"/>
-      <c r="E17" s="526"/>
-      <c r="F17" s="527"/>
-      <c r="G17" s="562"/>
-      <c r="H17" s="541"/>
-      <c r="I17" s="629"/>
-      <c r="J17" s="603"/>
-      <c r="K17" s="628"/>
+      <c r="A17" s="613"/>
+      <c r="B17" s="606"/>
+      <c r="C17" s="606"/>
+      <c r="D17" s="605"/>
+      <c r="E17" s="520"/>
+      <c r="F17" s="521"/>
+      <c r="G17" s="537"/>
+      <c r="H17" s="547"/>
+      <c r="I17" s="633"/>
+      <c r="J17" s="606"/>
+      <c r="K17" s="632"/>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="604"/>
-      <c r="C18" s="604"/>
-      <c r="D18" s="605"/>
+      <c r="B18" s="607"/>
+      <c r="C18" s="607"/>
+      <c r="D18" s="608"/>
       <c r="E18" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="563"/>
-      <c r="H18" s="542"/>
-      <c r="I18" s="630"/>
-      <c r="J18" s="604"/>
-      <c r="K18" s="631"/>
+      <c r="G18" s="538"/>
+      <c r="H18" s="548"/>
+      <c r="I18" s="634"/>
+      <c r="J18" s="607"/>
+      <c r="K18" s="635"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="586"/>
-      <c r="B19" s="587"/>
-      <c r="C19" s="587"/>
-      <c r="D19" s="588"/>
+      <c r="A19" s="589"/>
+      <c r="B19" s="590"/>
+      <c r="C19" s="590"/>
+      <c r="D19" s="591"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="35"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="574"/>
-      <c r="J19" s="575"/>
-      <c r="K19" s="576"/>
+      <c r="I19" s="595"/>
+      <c r="J19" s="596"/>
+      <c r="K19" s="597"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="568"/>
-      <c r="B20" s="569"/>
-      <c r="C20" s="569"/>
-      <c r="D20" s="570"/>
+      <c r="A20" s="592"/>
+      <c r="B20" s="593"/>
+      <c r="C20" s="593"/>
+      <c r="D20" s="594"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="35"/>
@@ -16963,10 +17189,10 @@
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" s="244" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="568"/>
-      <c r="B21" s="569"/>
-      <c r="C21" s="569"/>
-      <c r="D21" s="570"/>
+      <c r="A21" s="592"/>
+      <c r="B21" s="593"/>
+      <c r="C21" s="593"/>
+      <c r="D21" s="594"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="35"/>
@@ -16976,10 +17202,10 @@
       <c r="K21" s="243"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="568"/>
-      <c r="B22" s="569"/>
-      <c r="C22" s="569"/>
-      <c r="D22" s="570"/>
+      <c r="A22" s="592"/>
+      <c r="B22" s="593"/>
+      <c r="C22" s="593"/>
+      <c r="D22" s="594"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="35"/>
@@ -16989,10 +17215,10 @@
       <c r="K22" s="243"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="568"/>
-      <c r="B23" s="569"/>
-      <c r="C23" s="569"/>
-      <c r="D23" s="570"/>
+      <c r="A23" s="592"/>
+      <c r="B23" s="593"/>
+      <c r="C23" s="593"/>
+      <c r="D23" s="594"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="35"/>
@@ -17002,10 +17228,10 @@
       <c r="K23" s="243"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="568"/>
-      <c r="B24" s="569"/>
-      <c r="C24" s="569"/>
-      <c r="D24" s="570"/>
+      <c r="A24" s="592"/>
+      <c r="B24" s="593"/>
+      <c r="C24" s="593"/>
+      <c r="D24" s="594"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="35"/>
@@ -17015,10 +17241,10 @@
       <c r="K24" s="243"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="568"/>
-      <c r="B25" s="569"/>
-      <c r="C25" s="569"/>
-      <c r="D25" s="570"/>
+      <c r="A25" s="592"/>
+      <c r="B25" s="593"/>
+      <c r="C25" s="593"/>
+      <c r="D25" s="594"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="35"/>
@@ -17028,10 +17254,10 @@
       <c r="K25" s="243"/>
     </row>
     <row r="26" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="568"/>
-      <c r="B26" s="569"/>
-      <c r="C26" s="569"/>
-      <c r="D26" s="570"/>
+      <c r="A26" s="592"/>
+      <c r="B26" s="593"/>
+      <c r="C26" s="593"/>
+      <c r="D26" s="594"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="35"/>
@@ -17041,43 +17267,43 @@
       <c r="K26" s="243"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="586"/>
-      <c r="B27" s="587"/>
-      <c r="C27" s="587"/>
-      <c r="D27" s="588"/>
+      <c r="A27" s="589"/>
+      <c r="B27" s="590"/>
+      <c r="C27" s="590"/>
+      <c r="D27" s="591"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="35"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="574"/>
-      <c r="J27" s="575"/>
-      <c r="K27" s="576"/>
+      <c r="I27" s="595"/>
+      <c r="J27" s="596"/>
+      <c r="K27" s="597"/>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="586"/>
-      <c r="B28" s="587"/>
-      <c r="C28" s="587"/>
-      <c r="D28" s="588"/>
+      <c r="A28" s="589"/>
+      <c r="B28" s="590"/>
+      <c r="C28" s="590"/>
+      <c r="D28" s="591"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="35"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="574"/>
-      <c r="J28" s="575"/>
-      <c r="K28" s="576"/>
+      <c r="I28" s="595"/>
+      <c r="J28" s="596"/>
+      <c r="K28" s="597"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="586"/>
-      <c r="B29" s="587"/>
-      <c r="C29" s="587"/>
-      <c r="D29" s="588"/>
+      <c r="A29" s="589"/>
+      <c r="B29" s="590"/>
+      <c r="C29" s="590"/>
+      <c r="D29" s="591"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="35"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="574"/>
-      <c r="J29" s="575"/>
-      <c r="K29" s="576"/>
+      <c r="I29" s="595"/>
+      <c r="J29" s="596"/>
+      <c r="K29" s="597"/>
     </row>
     <row r="30" spans="1:11" s="231" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="228"/>
@@ -17158,86 +17384,86 @@
       <c r="K35" s="227"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="586"/>
-      <c r="B36" s="587"/>
-      <c r="C36" s="587"/>
-      <c r="D36" s="588"/>
+      <c r="A36" s="589"/>
+      <c r="B36" s="590"/>
+      <c r="C36" s="590"/>
+      <c r="D36" s="591"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="35"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="574"/>
-      <c r="J36" s="575"/>
-      <c r="K36" s="576"/>
+      <c r="I36" s="595"/>
+      <c r="J36" s="596"/>
+      <c r="K36" s="597"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="586"/>
-      <c r="B37" s="587"/>
-      <c r="C37" s="587"/>
-      <c r="D37" s="588"/>
+      <c r="A37" s="589"/>
+      <c r="B37" s="590"/>
+      <c r="C37" s="590"/>
+      <c r="D37" s="591"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="35"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="574"/>
-      <c r="J37" s="575"/>
-      <c r="K37" s="576"/>
+      <c r="I37" s="595"/>
+      <c r="J37" s="596"/>
+      <c r="K37" s="597"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="586"/>
-      <c r="B38" s="587"/>
-      <c r="C38" s="587"/>
-      <c r="D38" s="588"/>
+      <c r="A38" s="589"/>
+      <c r="B38" s="590"/>
+      <c r="C38" s="590"/>
+      <c r="D38" s="591"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="35"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="574"/>
-      <c r="J38" s="575"/>
-      <c r="K38" s="576"/>
+      <c r="I38" s="595"/>
+      <c r="J38" s="596"/>
+      <c r="K38" s="597"/>
     </row>
     <row r="39" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="583"/>
-      <c r="B39" s="584"/>
-      <c r="C39" s="584"/>
-      <c r="D39" s="585"/>
+      <c r="A39" s="636"/>
+      <c r="B39" s="637"/>
+      <c r="C39" s="637"/>
+      <c r="D39" s="638"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="591"/>
-      <c r="J39" s="592"/>
-      <c r="K39" s="593"/>
+      <c r="I39" s="639"/>
+      <c r="J39" s="640"/>
+      <c r="K39" s="641"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="490" t="s">
+      <c r="A40" s="323" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="491"/>
-      <c r="C40" s="491"/>
-      <c r="D40" s="491"/>
-      <c r="E40" s="491"/>
-      <c r="F40" s="491"/>
-      <c r="G40" s="491"/>
-      <c r="H40" s="491"/>
-      <c r="I40" s="491"/>
-      <c r="J40" s="491"/>
-      <c r="K40" s="492"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="324"/>
+      <c r="E40" s="324"/>
+      <c r="F40" s="324"/>
+      <c r="G40" s="324"/>
+      <c r="H40" s="324"/>
+      <c r="I40" s="324"/>
+      <c r="J40" s="324"/>
+      <c r="K40" s="325"/>
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="643" t="s">
+      <c r="A41" s="598" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="644"/>
-      <c r="C41" s="644"/>
-      <c r="D41" s="644"/>
-      <c r="E41" s="644"/>
-      <c r="F41" s="644"/>
-      <c r="G41" s="644"/>
-      <c r="H41" s="644"/>
-      <c r="I41" s="644"/>
-      <c r="J41" s="644"/>
-      <c r="K41" s="645"/>
+      <c r="B41" s="599"/>
+      <c r="C41" s="599"/>
+      <c r="D41" s="599"/>
+      <c r="E41" s="599"/>
+      <c r="F41" s="599"/>
+      <c r="G41" s="599"/>
+      <c r="H41" s="599"/>
+      <c r="I41" s="599"/>
+      <c r="J41" s="599"/>
+      <c r="K41" s="600"/>
     </row>
     <row r="42" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="156" t="s">
@@ -17249,143 +17475,143 @@
       <c r="C42" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="589" t="s">
+      <c r="D42" s="578" t="s">
         <v>366</v>
       </c>
-      <c r="E42" s="589"/>
-      <c r="F42" s="589"/>
-      <c r="G42" s="589"/>
-      <c r="H42" s="646"/>
+      <c r="E42" s="578"/>
+      <c r="F42" s="578"/>
+      <c r="G42" s="578"/>
+      <c r="H42" s="579"/>
       <c r="I42" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="589" t="s">
+      <c r="J42" s="578" t="s">
         <v>86</v>
       </c>
-      <c r="K42" s="590"/>
+      <c r="K42" s="648"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="638"/>
-      <c r="B43" s="639"/>
-      <c r="C43" s="571"/>
-      <c r="D43" s="572"/>
-      <c r="E43" s="572"/>
-      <c r="F43" s="572"/>
-      <c r="G43" s="572"/>
-      <c r="H43" s="573"/>
-      <c r="I43" s="595"/>
-      <c r="J43" s="596"/>
-      <c r="K43" s="597"/>
+      <c r="A43" s="570"/>
+      <c r="B43" s="571"/>
+      <c r="C43" s="575"/>
+      <c r="D43" s="576"/>
+      <c r="E43" s="576"/>
+      <c r="F43" s="576"/>
+      <c r="G43" s="576"/>
+      <c r="H43" s="577"/>
+      <c r="I43" s="572"/>
+      <c r="J43" s="573"/>
+      <c r="K43" s="574"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="638"/>
-      <c r="B44" s="639"/>
-      <c r="C44" s="571"/>
-      <c r="D44" s="572"/>
-      <c r="E44" s="572"/>
-      <c r="F44" s="572"/>
-      <c r="G44" s="572"/>
-      <c r="H44" s="573"/>
-      <c r="I44" s="595"/>
-      <c r="J44" s="596"/>
-      <c r="K44" s="597"/>
+      <c r="A44" s="570"/>
+      <c r="B44" s="571"/>
+      <c r="C44" s="575"/>
+      <c r="D44" s="576"/>
+      <c r="E44" s="576"/>
+      <c r="F44" s="576"/>
+      <c r="G44" s="576"/>
+      <c r="H44" s="577"/>
+      <c r="I44" s="572"/>
+      <c r="J44" s="573"/>
+      <c r="K44" s="574"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="638"/>
-      <c r="B45" s="639"/>
-      <c r="C45" s="571"/>
-      <c r="D45" s="572"/>
-      <c r="E45" s="572"/>
-      <c r="F45" s="572"/>
-      <c r="G45" s="572"/>
-      <c r="H45" s="573"/>
-      <c r="I45" s="595"/>
-      <c r="J45" s="596"/>
-      <c r="K45" s="597"/>
+      <c r="A45" s="570"/>
+      <c r="B45" s="571"/>
+      <c r="C45" s="575"/>
+      <c r="D45" s="576"/>
+      <c r="E45" s="576"/>
+      <c r="F45" s="576"/>
+      <c r="G45" s="576"/>
+      <c r="H45" s="577"/>
+      <c r="I45" s="572"/>
+      <c r="J45" s="573"/>
+      <c r="K45" s="574"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="638"/>
-      <c r="B46" s="639"/>
-      <c r="C46" s="571"/>
-      <c r="D46" s="572"/>
-      <c r="E46" s="572"/>
-      <c r="F46" s="572"/>
-      <c r="G46" s="572"/>
-      <c r="H46" s="573"/>
-      <c r="I46" s="595"/>
-      <c r="J46" s="596"/>
-      <c r="K46" s="597"/>
+      <c r="A46" s="570"/>
+      <c r="B46" s="571"/>
+      <c r="C46" s="575"/>
+      <c r="D46" s="576"/>
+      <c r="E46" s="576"/>
+      <c r="F46" s="576"/>
+      <c r="G46" s="576"/>
+      <c r="H46" s="577"/>
+      <c r="I46" s="572"/>
+      <c r="J46" s="573"/>
+      <c r="K46" s="574"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="638"/>
-      <c r="B47" s="639"/>
-      <c r="C47" s="571"/>
-      <c r="D47" s="572"/>
-      <c r="E47" s="572"/>
-      <c r="F47" s="572"/>
-      <c r="G47" s="572"/>
-      <c r="H47" s="573"/>
-      <c r="I47" s="595"/>
-      <c r="J47" s="596"/>
-      <c r="K47" s="597"/>
+      <c r="A47" s="570"/>
+      <c r="B47" s="571"/>
+      <c r="C47" s="575"/>
+      <c r="D47" s="576"/>
+      <c r="E47" s="576"/>
+      <c r="F47" s="576"/>
+      <c r="G47" s="576"/>
+      <c r="H47" s="577"/>
+      <c r="I47" s="572"/>
+      <c r="J47" s="573"/>
+      <c r="K47" s="574"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="638"/>
-      <c r="B48" s="639"/>
-      <c r="C48" s="571"/>
-      <c r="D48" s="572"/>
-      <c r="E48" s="572"/>
-      <c r="F48" s="572"/>
-      <c r="G48" s="572"/>
-      <c r="H48" s="573"/>
-      <c r="I48" s="595"/>
-      <c r="J48" s="596"/>
-      <c r="K48" s="597"/>
+      <c r="A48" s="570"/>
+      <c r="B48" s="571"/>
+      <c r="C48" s="575"/>
+      <c r="D48" s="576"/>
+      <c r="E48" s="576"/>
+      <c r="F48" s="576"/>
+      <c r="G48" s="576"/>
+      <c r="H48" s="577"/>
+      <c r="I48" s="572"/>
+      <c r="J48" s="573"/>
+      <c r="K48" s="574"/>
     </row>
     <row r="49" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="638"/>
-      <c r="B49" s="639"/>
-      <c r="C49" s="571"/>
-      <c r="D49" s="572"/>
-      <c r="E49" s="572"/>
-      <c r="F49" s="572"/>
-      <c r="G49" s="572"/>
-      <c r="H49" s="573"/>
-      <c r="I49" s="595"/>
-      <c r="J49" s="596"/>
-      <c r="K49" s="597"/>
+      <c r="A49" s="570"/>
+      <c r="B49" s="571"/>
+      <c r="C49" s="575"/>
+      <c r="D49" s="576"/>
+      <c r="E49" s="576"/>
+      <c r="F49" s="576"/>
+      <c r="G49" s="576"/>
+      <c r="H49" s="577"/>
+      <c r="I49" s="572"/>
+      <c r="J49" s="573"/>
+      <c r="K49" s="574"/>
     </row>
     <row r="50" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="490" t="s">
+      <c r="A50" s="323" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="491"/>
-      <c r="C50" s="491"/>
-      <c r="D50" s="491"/>
-      <c r="E50" s="491"/>
-      <c r="F50" s="491"/>
-      <c r="G50" s="491"/>
-      <c r="H50" s="491"/>
-      <c r="I50" s="491"/>
-      <c r="J50" s="491"/>
-      <c r="K50" s="530"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="324"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="324"/>
+      <c r="G50" s="324"/>
+      <c r="H50" s="324"/>
+      <c r="I50" s="324"/>
+      <c r="J50" s="324"/>
+      <c r="K50" s="555"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="487" t="s">
+      <c r="A51" s="320" t="s">
         <v>393</v>
       </c>
-      <c r="B51" s="489"/>
-      <c r="C51" s="544"/>
-      <c r="D51" s="545"/>
-      <c r="E51" s="545"/>
-      <c r="F51" s="546"/>
-      <c r="G51" s="647" t="s">
+      <c r="B51" s="322"/>
+      <c r="C51" s="512"/>
+      <c r="D51" s="513"/>
+      <c r="E51" s="513"/>
+      <c r="F51" s="514"/>
+      <c r="G51" s="568" t="s">
         <v>394</v>
       </c>
-      <c r="H51" s="648"/>
-      <c r="I51" s="544"/>
-      <c r="J51" s="545"/>
-      <c r="K51" s="546"/>
+      <c r="H51" s="569"/>
+      <c r="I51" s="512"/>
+      <c r="J51" s="513"/>
+      <c r="K51" s="514"/>
       <c r="L51" s="299"/>
       <c r="M51" s="299"/>
     </row>
@@ -17406,6 +17632,74 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="84">
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I16:K18"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="I51:K51"/>
@@ -17422,89 +17716,21 @@
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I16:K18"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A40:K40"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0.37" bottom="0" header="0.3" footer="0"/>
-  <pageSetup paperSize="128" scale="78" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="128" scale="68" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A64" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
@@ -17526,35 +17752,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="656"/>
-      <c r="B1" s="657"/>
-      <c r="C1" s="657"/>
-      <c r="D1" s="657"/>
-      <c r="E1" s="657"/>
-      <c r="F1" s="657"/>
-      <c r="G1" s="657"/>
-      <c r="H1" s="657"/>
-      <c r="I1" s="657"/>
-      <c r="J1" s="657"/>
-      <c r="K1" s="657"/>
-      <c r="L1" s="657"/>
-      <c r="M1" s="658"/>
+      <c r="A1" s="766"/>
+      <c r="B1" s="767"/>
+      <c r="C1" s="767"/>
+      <c r="D1" s="767"/>
+      <c r="E1" s="767"/>
+      <c r="F1" s="767"/>
+      <c r="G1" s="767"/>
+      <c r="H1" s="767"/>
+      <c r="I1" s="767"/>
+      <c r="J1" s="767"/>
+      <c r="K1" s="767"/>
+      <c r="L1" s="767"/>
+      <c r="M1" s="768"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="681" t="s">
+      <c r="A2" s="743" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="682"/>
-      <c r="C2" s="661" t="s">
+      <c r="B2" s="744"/>
+      <c r="C2" s="771" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="661"/>
-      <c r="E2" s="661"/>
-      <c r="F2" s="662"/>
+      <c r="D2" s="771"/>
+      <c r="E2" s="771"/>
+      <c r="F2" s="772"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
-      <c r="I2" s="659"/>
-      <c r="J2" s="659"/>
+      <c r="I2" s="769"/>
+      <c r="J2" s="769"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
       <c r="M2" s="46"/>
@@ -17562,16 +17788,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="665" t="s">
+      <c r="C3" s="759" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="665"/>
-      <c r="E3" s="665"/>
-      <c r="F3" s="666"/>
+      <c r="D3" s="759"/>
+      <c r="E3" s="759"/>
+      <c r="F3" s="760"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
-      <c r="I3" s="660"/>
-      <c r="J3" s="660"/>
+      <c r="I3" s="770"/>
+      <c r="J3" s="770"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
       <c r="M3" s="51"/>
@@ -17579,12 +17805,12 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="665" t="s">
+      <c r="C4" s="759" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="665"/>
-      <c r="E4" s="665"/>
-      <c r="F4" s="666"/>
+      <c r="D4" s="759"/>
+      <c r="E4" s="759"/>
+      <c r="F4" s="760"/>
       <c r="G4" s="209"/>
       <c r="H4" s="291"/>
       <c r="I4" s="209"/>
@@ -17596,33 +17822,33 @@
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="665"/>
-      <c r="D5" s="665"/>
-      <c r="E5" s="665"/>
-      <c r="F5" s="666"/>
-      <c r="G5" s="653"/>
-      <c r="H5" s="653"/>
-      <c r="I5" s="653"/>
-      <c r="J5" s="653"/>
-      <c r="K5" s="653"/>
-      <c r="L5" s="653"/>
+      <c r="C5" s="759"/>
+      <c r="D5" s="759"/>
+      <c r="E5" s="759"/>
+      <c r="F5" s="760"/>
+      <c r="G5" s="674"/>
+      <c r="H5" s="674"/>
+      <c r="I5" s="674"/>
+      <c r="J5" s="674"/>
+      <c r="K5" s="674"/>
+      <c r="L5" s="674"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="48"/>
-      <c r="C6" s="665" t="s">
+      <c r="C6" s="759" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="665"/>
-      <c r="E6" s="665"/>
-      <c r="F6" s="666"/>
+      <c r="D6" s="759"/>
+      <c r="E6" s="759"/>
+      <c r="F6" s="760"/>
       <c r="G6" s="167"/>
       <c r="H6" s="167"/>
-      <c r="I6" s="687"/>
-      <c r="J6" s="687"/>
-      <c r="K6" s="687"/>
-      <c r="L6" s="687"/>
+      <c r="I6" s="765"/>
+      <c r="J6" s="765"/>
+      <c r="K6" s="765"/>
+      <c r="L6" s="765"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="166" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -17643,12 +17869,12 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
-      <c r="C8" s="665" t="s">
+      <c r="C8" s="759" t="s">
         <v>367</v>
       </c>
-      <c r="D8" s="665"/>
-      <c r="E8" s="665"/>
-      <c r="F8" s="666"/>
+      <c r="D8" s="759"/>
+      <c r="E8" s="759"/>
+      <c r="F8" s="760"/>
       <c r="G8" s="209"/>
       <c r="H8" s="291"/>
       <c r="I8" s="209"/>
@@ -17675,61 +17901,61 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="665"/>
-      <c r="D10" s="665"/>
-      <c r="E10" s="665"/>
-      <c r="F10" s="666"/>
-      <c r="G10" s="653" t="s">
+      <c r="C10" s="759"/>
+      <c r="D10" s="759"/>
+      <c r="E10" s="759"/>
+      <c r="F10" s="760"/>
+      <c r="G10" s="674" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="653"/>
-      <c r="I10" s="653"/>
-      <c r="J10" s="653"/>
-      <c r="K10" s="653"/>
-      <c r="L10" s="653"/>
+      <c r="H10" s="674"/>
+      <c r="I10" s="674"/>
+      <c r="J10" s="674"/>
+      <c r="K10" s="674"/>
+      <c r="L10" s="674"/>
       <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="665"/>
-      <c r="D11" s="665"/>
-      <c r="E11" s="665"/>
-      <c r="F11" s="666"/>
+      <c r="C11" s="759"/>
+      <c r="D11" s="759"/>
+      <c r="E11" s="759"/>
+      <c r="F11" s="760"/>
       <c r="G11" s="168"/>
       <c r="H11" s="169"/>
-      <c r="I11" s="685"/>
-      <c r="J11" s="685"/>
-      <c r="K11" s="685"/>
-      <c r="L11" s="685"/>
+      <c r="I11" s="763"/>
+      <c r="J11" s="763"/>
+      <c r="K11" s="763"/>
+      <c r="L11" s="763"/>
       <c r="M11" s="101"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="683"/>
-      <c r="D12" s="683"/>
-      <c r="E12" s="683"/>
-      <c r="F12" s="684"/>
+      <c r="C12" s="761"/>
+      <c r="D12" s="761"/>
+      <c r="E12" s="761"/>
+      <c r="F12" s="762"/>
       <c r="G12" s="169"/>
       <c r="H12" s="169"/>
-      <c r="I12" s="686"/>
-      <c r="J12" s="686"/>
-      <c r="K12" s="686"/>
-      <c r="L12" s="686"/>
+      <c r="I12" s="764"/>
+      <c r="J12" s="764"/>
+      <c r="K12" s="764"/>
+      <c r="L12" s="764"/>
       <c r="M12" s="142"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="649" t="s">
+      <c r="A13" s="783" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="650"/>
-      <c r="C13" s="651" t="s">
+      <c r="B13" s="784"/>
+      <c r="C13" s="779" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="651"/>
-      <c r="E13" s="601"/>
-      <c r="F13" s="602"/>
+      <c r="D13" s="779"/>
+      <c r="E13" s="604"/>
+      <c r="F13" s="605"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -17741,48 +17967,48 @@
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="651"/>
-      <c r="D14" s="651"/>
-      <c r="E14" s="601"/>
-      <c r="F14" s="602"/>
-      <c r="G14" s="652" t="s">
+      <c r="C14" s="779"/>
+      <c r="D14" s="779"/>
+      <c r="E14" s="604"/>
+      <c r="F14" s="605"/>
+      <c r="G14" s="673" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="653"/>
-      <c r="I14" s="653"/>
-      <c r="J14" s="653"/>
-      <c r="K14" s="653"/>
-      <c r="L14" s="653"/>
+      <c r="H14" s="674"/>
+      <c r="I14" s="674"/>
+      <c r="J14" s="674"/>
+      <c r="K14" s="674"/>
+      <c r="L14" s="674"/>
       <c r="M14" s="141"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="651"/>
-      <c r="D15" s="651"/>
-      <c r="E15" s="601"/>
-      <c r="F15" s="602"/>
+      <c r="C15" s="779"/>
+      <c r="D15" s="779"/>
+      <c r="E15" s="604"/>
+      <c r="F15" s="605"/>
       <c r="G15" s="49"/>
       <c r="H15" s="315"/>
-      <c r="I15" s="654"/>
-      <c r="J15" s="654"/>
-      <c r="K15" s="654"/>
-      <c r="L15" s="654"/>
+      <c r="I15" s="785"/>
+      <c r="J15" s="785"/>
+      <c r="K15" s="785"/>
+      <c r="L15" s="785"/>
       <c r="M15" s="141"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
-      <c r="C16" s="601"/>
-      <c r="D16" s="601"/>
-      <c r="E16" s="601"/>
-      <c r="F16" s="602"/>
+      <c r="C16" s="604"/>
+      <c r="D16" s="604"/>
+      <c r="E16" s="604"/>
+      <c r="F16" s="605"/>
       <c r="G16" s="138"/>
       <c r="H16" s="305"/>
-      <c r="I16" s="655"/>
-      <c r="J16" s="655"/>
-      <c r="K16" s="655"/>
-      <c r="L16" s="655"/>
+      <c r="I16" s="776"/>
+      <c r="J16" s="776"/>
+      <c r="K16" s="776"/>
+      <c r="L16" s="776"/>
       <c r="M16" s="139"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17803,12 +18029,12 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="780" t="s">
+      <c r="C18" s="676" t="s">
         <v>392</v>
       </c>
-      <c r="D18" s="780"/>
-      <c r="E18" s="781"/>
-      <c r="F18" s="782"/>
+      <c r="D18" s="676"/>
+      <c r="E18" s="677"/>
+      <c r="F18" s="678"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
@@ -17820,32 +18046,32 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="780"/>
-      <c r="D19" s="780"/>
-      <c r="E19" s="781"/>
-      <c r="F19" s="782"/>
-      <c r="G19" s="652" t="s">
+      <c r="C19" s="676"/>
+      <c r="D19" s="676"/>
+      <c r="E19" s="677"/>
+      <c r="F19" s="678"/>
+      <c r="G19" s="673" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="653"/>
-      <c r="I19" s="653"/>
-      <c r="J19" s="653"/>
-      <c r="K19" s="653"/>
-      <c r="L19" s="653"/>
+      <c r="H19" s="674"/>
+      <c r="I19" s="674"/>
+      <c r="J19" s="674"/>
+      <c r="K19" s="674"/>
+      <c r="L19" s="674"/>
       <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="780"/>
-      <c r="D20" s="780"/>
-      <c r="E20" s="781"/>
-      <c r="F20" s="782"/>
+      <c r="C20" s="676"/>
+      <c r="D20" s="676"/>
+      <c r="E20" s="677"/>
+      <c r="F20" s="678"/>
       <c r="G20" s="64"/>
-      <c r="H20" s="758" t="s">
+      <c r="H20" s="649" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="758"/>
+      <c r="I20" s="649"/>
       <c r="J20" s="316"/>
       <c r="K20" s="317"/>
       <c r="L20" s="143"/>
@@ -17854,15 +18080,15 @@
     <row r="21" spans="1:13" s="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="780"/>
-      <c r="D21" s="780"/>
-      <c r="E21" s="781"/>
-      <c r="F21" s="782"/>
-      <c r="G21" s="759" t="s">
+      <c r="C21" s="676"/>
+      <c r="D21" s="676"/>
+      <c r="E21" s="677"/>
+      <c r="F21" s="678"/>
+      <c r="G21" s="650" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="760"/>
-      <c r="I21" s="760"/>
+      <c r="H21" s="651"/>
+      <c r="I21" s="651"/>
       <c r="J21" s="316"/>
       <c r="K21" s="318"/>
       <c r="L21" s="143"/>
@@ -17871,31 +18097,31 @@
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="67"/>
-      <c r="C22" s="783"/>
-      <c r="D22" s="783"/>
-      <c r="E22" s="783"/>
-      <c r="F22" s="784"/>
+      <c r="C22" s="679"/>
+      <c r="D22" s="679"/>
+      <c r="E22" s="679"/>
+      <c r="F22" s="680"/>
       <c r="G22" s="138" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="305"/>
-      <c r="I22" s="785"/>
-      <c r="J22" s="785"/>
-      <c r="K22" s="785"/>
+      <c r="I22" s="681"/>
+      <c r="J22" s="681"/>
+      <c r="K22" s="681"/>
       <c r="L22" s="144"/>
       <c r="M22" s="139"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="720" t="s">
+      <c r="A23" s="669" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="721"/>
-      <c r="C23" s="677" t="s">
+      <c r="B23" s="670"/>
+      <c r="C23" s="713" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="677"/>
-      <c r="E23" s="677"/>
-      <c r="F23" s="678"/>
+      <c r="D23" s="713"/>
+      <c r="E23" s="713"/>
+      <c r="F23" s="714"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -17907,61 +18133,61 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
-      <c r="C24" s="668"/>
-      <c r="D24" s="668"/>
-      <c r="E24" s="668"/>
-      <c r="F24" s="667"/>
-      <c r="G24" s="652" t="s">
+      <c r="C24" s="715"/>
+      <c r="D24" s="715"/>
+      <c r="E24" s="715"/>
+      <c r="F24" s="716"/>
+      <c r="G24" s="673" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="653"/>
-      <c r="I24" s="653"/>
-      <c r="J24" s="653"/>
-      <c r="K24" s="653"/>
-      <c r="L24" s="653"/>
+      <c r="H24" s="674"/>
+      <c r="I24" s="674"/>
+      <c r="J24" s="674"/>
+      <c r="K24" s="674"/>
+      <c r="L24" s="674"/>
       <c r="M24" s="137"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
-      <c r="C25" s="668"/>
-      <c r="D25" s="668"/>
-      <c r="E25" s="668"/>
-      <c r="F25" s="667"/>
+      <c r="C25" s="715"/>
+      <c r="D25" s="715"/>
+      <c r="E25" s="715"/>
+      <c r="F25" s="716"/>
       <c r="G25" s="136"/>
       <c r="H25" s="305"/>
-      <c r="I25" s="676"/>
-      <c r="J25" s="676"/>
-      <c r="K25" s="676"/>
-      <c r="L25" s="676"/>
+      <c r="I25" s="682"/>
+      <c r="J25" s="682"/>
+      <c r="K25" s="682"/>
+      <c r="L25" s="682"/>
       <c r="M25" s="137"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="679"/>
-      <c r="D26" s="679"/>
-      <c r="E26" s="679"/>
-      <c r="F26" s="680"/>
+      <c r="C26" s="717"/>
+      <c r="D26" s="717"/>
+      <c r="E26" s="717"/>
+      <c r="F26" s="718"/>
       <c r="G26" s="138"/>
       <c r="H26" s="305"/>
-      <c r="I26" s="655"/>
-      <c r="J26" s="655"/>
-      <c r="K26" s="655"/>
-      <c r="L26" s="655"/>
+      <c r="I26" s="776"/>
+      <c r="J26" s="776"/>
+      <c r="K26" s="776"/>
+      <c r="L26" s="776"/>
       <c r="M26" s="139"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="720" t="s">
+      <c r="A27" s="669" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="721"/>
-      <c r="C27" s="677" t="s">
+      <c r="B27" s="670"/>
+      <c r="C27" s="713" t="s">
         <v>360</v>
       </c>
-      <c r="D27" s="677"/>
-      <c r="E27" s="677"/>
-      <c r="F27" s="678"/>
+      <c r="D27" s="713"/>
+      <c r="E27" s="713"/>
+      <c r="F27" s="714"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
@@ -17973,42 +18199,42 @@
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="668"/>
-      <c r="D28" s="668"/>
-      <c r="E28" s="668"/>
-      <c r="F28" s="667"/>
-      <c r="G28" s="652" t="s">
+      <c r="C28" s="715"/>
+      <c r="D28" s="715"/>
+      <c r="E28" s="715"/>
+      <c r="F28" s="716"/>
+      <c r="G28" s="673" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="653"/>
-      <c r="I28" s="653"/>
-      <c r="J28" s="653"/>
-      <c r="K28" s="653"/>
-      <c r="L28" s="653"/>
+      <c r="H28" s="674"/>
+      <c r="I28" s="674"/>
+      <c r="J28" s="674"/>
+      <c r="K28" s="674"/>
+      <c r="L28" s="674"/>
       <c r="M28" s="210"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
-      <c r="C29" s="668"/>
-      <c r="D29" s="668"/>
-      <c r="E29" s="668"/>
-      <c r="F29" s="667"/>
+      <c r="C29" s="715"/>
+      <c r="D29" s="715"/>
+      <c r="E29" s="715"/>
+      <c r="F29" s="716"/>
       <c r="G29" s="209"/>
       <c r="H29" s="293"/>
-      <c r="I29" s="676"/>
-      <c r="J29" s="676"/>
-      <c r="K29" s="676"/>
-      <c r="L29" s="676"/>
+      <c r="I29" s="682"/>
+      <c r="J29" s="682"/>
+      <c r="K29" s="682"/>
+      <c r="L29" s="682"/>
       <c r="M29" s="137"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="68"/>
       <c r="B30" s="69"/>
-      <c r="C30" s="679"/>
-      <c r="D30" s="679"/>
-      <c r="E30" s="679"/>
-      <c r="F30" s="680"/>
+      <c r="C30" s="717"/>
+      <c r="D30" s="717"/>
+      <c r="E30" s="717"/>
+      <c r="F30" s="718"/>
       <c r="G30" s="161"/>
       <c r="H30" s="307"/>
       <c r="I30" s="212"/>
@@ -18018,16 +18244,16 @@
       <c r="M30" s="139"/>
     </row>
     <row r="31" spans="1:13" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="720" t="s">
+      <c r="A31" s="669" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="721"/>
-      <c r="C31" s="677" t="s">
+      <c r="B31" s="670"/>
+      <c r="C31" s="713" t="s">
         <v>356</v>
       </c>
-      <c r="D31" s="677"/>
-      <c r="E31" s="677"/>
-      <c r="F31" s="678"/>
+      <c r="D31" s="713"/>
+      <c r="E31" s="713"/>
+      <c r="F31" s="714"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -18039,18 +18265,18 @@
     <row r="32" spans="1:13" s="160" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="668"/>
-      <c r="D32" s="668"/>
-      <c r="E32" s="668"/>
-      <c r="F32" s="667"/>
-      <c r="G32" s="723" t="s">
+      <c r="C32" s="715"/>
+      <c r="D32" s="715"/>
+      <c r="E32" s="715"/>
+      <c r="F32" s="716"/>
+      <c r="G32" s="721" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="724"/>
-      <c r="I32" s="724"/>
-      <c r="J32" s="724"/>
-      <c r="K32" s="722"/>
-      <c r="L32" s="722"/>
+      <c r="H32" s="722"/>
+      <c r="I32" s="722"/>
+      <c r="J32" s="722"/>
+      <c r="K32" s="720"/>
+      <c r="L32" s="720"/>
       <c r="M32" s="137"/>
     </row>
     <row r="33" spans="1:14" s="211" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18071,12 +18297,12 @@
     <row r="34" spans="1:14" s="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="668" t="s">
+      <c r="C34" s="715" t="s">
         <v>358</v>
       </c>
-      <c r="D34" s="668"/>
-      <c r="E34" s="668"/>
-      <c r="F34" s="667"/>
+      <c r="D34" s="715"/>
+      <c r="E34" s="715"/>
+      <c r="F34" s="716"/>
       <c r="G34" s="136"/>
       <c r="H34" s="306"/>
       <c r="I34" s="719"/>
@@ -18088,27 +18314,27 @@
     <row r="35" spans="1:14" s="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="668"/>
-      <c r="D35" s="668"/>
-      <c r="E35" s="668"/>
-      <c r="F35" s="667"/>
-      <c r="G35" s="723" t="s">
+      <c r="C35" s="715"/>
+      <c r="D35" s="715"/>
+      <c r="E35" s="715"/>
+      <c r="F35" s="716"/>
+      <c r="G35" s="721" t="s">
         <v>357</v>
       </c>
-      <c r="H35" s="724"/>
-      <c r="I35" s="724"/>
-      <c r="J35" s="724"/>
-      <c r="K35" s="722"/>
-      <c r="L35" s="722"/>
+      <c r="H35" s="722"/>
+      <c r="I35" s="722"/>
+      <c r="J35" s="722"/>
+      <c r="K35" s="720"/>
+      <c r="L35" s="720"/>
       <c r="M35" s="137"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="68"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="679"/>
-      <c r="D36" s="679"/>
-      <c r="E36" s="679"/>
-      <c r="F36" s="680"/>
+      <c r="C36" s="717"/>
+      <c r="D36" s="717"/>
+      <c r="E36" s="717"/>
+      <c r="F36" s="718"/>
       <c r="G36" s="140"/>
       <c r="H36" s="79"/>
       <c r="I36" s="131"/>
@@ -18118,16 +18344,16 @@
       <c r="M36" s="139"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="720" t="s">
+      <c r="A37" s="669" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="721"/>
-      <c r="C37" s="671" t="s">
+      <c r="B37" s="670"/>
+      <c r="C37" s="777" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="671"/>
-      <c r="E37" s="671"/>
-      <c r="F37" s="672"/>
+      <c r="D37" s="777"/>
+      <c r="E37" s="777"/>
+      <c r="F37" s="778"/>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
@@ -18139,61 +18365,61 @@
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="651"/>
-      <c r="D38" s="651"/>
-      <c r="E38" s="651"/>
-      <c r="F38" s="673"/>
-      <c r="G38" s="652" t="s">
+      <c r="C38" s="779"/>
+      <c r="D38" s="779"/>
+      <c r="E38" s="779"/>
+      <c r="F38" s="780"/>
+      <c r="G38" s="673" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="653"/>
-      <c r="I38" s="653"/>
-      <c r="J38" s="653"/>
-      <c r="K38" s="653"/>
-      <c r="L38" s="653"/>
-      <c r="M38" s="779"/>
+      <c r="H38" s="674"/>
+      <c r="I38" s="674"/>
+      <c r="J38" s="674"/>
+      <c r="K38" s="674"/>
+      <c r="L38" s="674"/>
+      <c r="M38" s="675"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
-      <c r="C39" s="651"/>
-      <c r="D39" s="651"/>
-      <c r="E39" s="651"/>
-      <c r="F39" s="673"/>
+      <c r="C39" s="779"/>
+      <c r="D39" s="779"/>
+      <c r="E39" s="779"/>
+      <c r="F39" s="780"/>
       <c r="G39" s="136"/>
       <c r="H39" s="305"/>
-      <c r="I39" s="676"/>
-      <c r="J39" s="676"/>
-      <c r="K39" s="676"/>
-      <c r="L39" s="676"/>
+      <c r="I39" s="682"/>
+      <c r="J39" s="682"/>
+      <c r="K39" s="682"/>
+      <c r="L39" s="682"/>
       <c r="M39" s="137"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="69"/>
-      <c r="C40" s="674"/>
-      <c r="D40" s="674"/>
-      <c r="E40" s="674"/>
-      <c r="F40" s="675"/>
+      <c r="C40" s="781"/>
+      <c r="D40" s="781"/>
+      <c r="E40" s="781"/>
+      <c r="F40" s="782"/>
       <c r="G40" s="138"/>
       <c r="H40" s="305"/>
-      <c r="I40" s="655"/>
-      <c r="J40" s="655"/>
-      <c r="K40" s="655"/>
-      <c r="L40" s="655"/>
+      <c r="I40" s="776"/>
+      <c r="J40" s="776"/>
+      <c r="K40" s="776"/>
+      <c r="L40" s="776"/>
       <c r="M40" s="139"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="669" t="s">
+      <c r="A41" s="774" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="670"/>
-      <c r="C41" s="668" t="s">
+      <c r="B41" s="775"/>
+      <c r="C41" s="715" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="668"/>
-      <c r="E41" s="668"/>
-      <c r="F41" s="667"/>
+      <c r="D41" s="715"/>
+      <c r="E41" s="715"/>
+      <c r="F41" s="716"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
       <c r="I41" s="74"/>
@@ -18205,10 +18431,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
-      <c r="C42" s="668"/>
-      <c r="D42" s="668"/>
-      <c r="E42" s="668"/>
-      <c r="F42" s="667"/>
+      <c r="C42" s="715"/>
+      <c r="D42" s="715"/>
+      <c r="E42" s="715"/>
+      <c r="F42" s="716"/>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
       <c r="I42" s="77"/>
@@ -18223,12 +18449,12 @@
         <v>80</v>
       </c>
       <c r="B43" s="73"/>
-      <c r="C43" s="668" t="s">
+      <c r="C43" s="715" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="668"/>
-      <c r="E43" s="668"/>
-      <c r="F43" s="667"/>
+      <c r="D43" s="715"/>
+      <c r="E43" s="715"/>
+      <c r="F43" s="716"/>
       <c r="G43" s="209"/>
       <c r="H43" s="291"/>
       <c r="I43" s="209"/>
@@ -18241,10 +18467,10 @@
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
       <c r="B44" s="73"/>
-      <c r="C44" s="668"/>
-      <c r="D44" s="668"/>
-      <c r="E44" s="668"/>
-      <c r="F44" s="667"/>
+      <c r="C44" s="715"/>
+      <c r="D44" s="715"/>
+      <c r="E44" s="715"/>
+      <c r="F44" s="716"/>
       <c r="G44" s="222" t="s">
         <v>327</v>
       </c>
@@ -18261,12 +18487,12 @@
         <v>81</v>
       </c>
       <c r="B45" s="73"/>
-      <c r="C45" s="667" t="s">
+      <c r="C45" s="716" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="667"/>
-      <c r="E45" s="667"/>
-      <c r="F45" s="667"/>
+      <c r="D45" s="716"/>
+      <c r="E45" s="716"/>
+      <c r="F45" s="716"/>
       <c r="G45" s="209"/>
       <c r="H45" s="291"/>
       <c r="I45" s="209"/>
@@ -18279,10 +18505,10 @@
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="72"/>
       <c r="B46" s="73"/>
-      <c r="C46" s="667"/>
-      <c r="D46" s="667"/>
-      <c r="E46" s="667"/>
-      <c r="F46" s="667"/>
+      <c r="C46" s="716"/>
+      <c r="D46" s="716"/>
+      <c r="E46" s="716"/>
+      <c r="F46" s="716"/>
       <c r="G46" s="223" t="s">
         <v>328</v>
       </c>
@@ -18299,10 +18525,10 @@
         <v>83</v>
       </c>
       <c r="B47" s="73"/>
-      <c r="C47" s="668" t="s">
+      <c r="C47" s="715" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="668"/>
+      <c r="D47" s="715"/>
       <c r="E47" s="128"/>
       <c r="F47" s="129"/>
       <c r="G47" s="209"/>
@@ -18315,12 +18541,12 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="700"/>
-      <c r="B48" s="701"/>
-      <c r="C48" s="701"/>
-      <c r="D48" s="701"/>
-      <c r="E48" s="701"/>
-      <c r="F48" s="702"/>
+      <c r="A48" s="736"/>
+      <c r="B48" s="737"/>
+      <c r="C48" s="737"/>
+      <c r="D48" s="737"/>
+      <c r="E48" s="737"/>
+      <c r="F48" s="738"/>
       <c r="G48" s="224" t="s">
         <v>328</v>
       </c>
@@ -18333,12 +18559,12 @@
       <c r="N48" s="79"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="703"/>
-      <c r="B49" s="704"/>
-      <c r="C49" s="704"/>
-      <c r="D49" s="704"/>
-      <c r="E49" s="704"/>
-      <c r="F49" s="705"/>
+      <c r="A49" s="739"/>
+      <c r="B49" s="740"/>
+      <c r="C49" s="740"/>
+      <c r="D49" s="740"/>
+      <c r="E49" s="740"/>
+      <c r="F49" s="741"/>
       <c r="G49" s="130"/>
       <c r="H49" s="126"/>
       <c r="I49" s="126"/>
@@ -18349,10 +18575,10 @@
       <c r="N49" s="79"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="777" t="s">
+      <c r="A50" s="671" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="778"/>
+      <c r="B50" s="672"/>
       <c r="C50" s="220" t="s">
         <v>384</v>
       </c>
@@ -18362,128 +18588,128 @@
       <c r="G50" s="220"/>
       <c r="H50" s="220"/>
       <c r="I50" s="221"/>
-      <c r="J50" s="688"/>
-      <c r="K50" s="689"/>
-      <c r="L50" s="689"/>
-      <c r="M50" s="690"/>
+      <c r="J50" s="723"/>
+      <c r="K50" s="724"/>
+      <c r="L50" s="724"/>
+      <c r="M50" s="725"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="697" t="s">
+      <c r="A51" s="733" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="698"/>
-      <c r="C51" s="698"/>
-      <c r="D51" s="698"/>
-      <c r="E51" s="699"/>
+      <c r="B51" s="734"/>
+      <c r="C51" s="734"/>
+      <c r="D51" s="734"/>
+      <c r="E51" s="735"/>
       <c r="F51" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="706" t="s">
+      <c r="G51" s="742" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="589"/>
-      <c r="I51" s="590"/>
-      <c r="J51" s="691"/>
-      <c r="K51" s="692"/>
-      <c r="L51" s="692"/>
-      <c r="M51" s="693"/>
+      <c r="H51" s="578"/>
+      <c r="I51" s="648"/>
+      <c r="J51" s="726"/>
+      <c r="K51" s="727"/>
+      <c r="L51" s="727"/>
+      <c r="M51" s="728"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="714"/>
-      <c r="B52" s="715"/>
-      <c r="C52" s="717"/>
-      <c r="D52" s="717"/>
-      <c r="E52" s="718"/>
+      <c r="A52" s="752"/>
+      <c r="B52" s="753"/>
+      <c r="C52" s="755"/>
+      <c r="D52" s="755"/>
+      <c r="E52" s="756"/>
       <c r="F52" s="80"/>
-      <c r="G52" s="707"/>
-      <c r="H52" s="708"/>
-      <c r="I52" s="709"/>
-      <c r="J52" s="691"/>
-      <c r="K52" s="692"/>
-      <c r="L52" s="692"/>
-      <c r="M52" s="693"/>
+      <c r="G52" s="745"/>
+      <c r="H52" s="746"/>
+      <c r="I52" s="747"/>
+      <c r="J52" s="726"/>
+      <c r="K52" s="727"/>
+      <c r="L52" s="727"/>
+      <c r="M52" s="728"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="714"/>
-      <c r="B53" s="715"/>
-      <c r="C53" s="715"/>
-      <c r="D53" s="715"/>
-      <c r="E53" s="716"/>
+      <c r="A53" s="752"/>
+      <c r="B53" s="753"/>
+      <c r="C53" s="753"/>
+      <c r="D53" s="753"/>
+      <c r="E53" s="754"/>
       <c r="F53" s="80"/>
-      <c r="G53" s="707"/>
-      <c r="H53" s="708"/>
-      <c r="I53" s="709"/>
-      <c r="J53" s="691"/>
-      <c r="K53" s="692"/>
-      <c r="L53" s="692"/>
-      <c r="M53" s="693"/>
+      <c r="G53" s="745"/>
+      <c r="H53" s="746"/>
+      <c r="I53" s="747"/>
+      <c r="J53" s="726"/>
+      <c r="K53" s="727"/>
+      <c r="L53" s="727"/>
+      <c r="M53" s="728"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="710"/>
-      <c r="B54" s="711"/>
-      <c r="C54" s="712"/>
-      <c r="D54" s="712"/>
-      <c r="E54" s="713"/>
+      <c r="A54" s="748"/>
+      <c r="B54" s="749"/>
+      <c r="C54" s="750"/>
+      <c r="D54" s="750"/>
+      <c r="E54" s="751"/>
       <c r="F54" s="236"/>
-      <c r="G54" s="694"/>
-      <c r="H54" s="695"/>
-      <c r="I54" s="696"/>
-      <c r="J54" s="691"/>
-      <c r="K54" s="692"/>
-      <c r="L54" s="692"/>
-      <c r="M54" s="693"/>
+      <c r="G54" s="730"/>
+      <c r="H54" s="731"/>
+      <c r="I54" s="732"/>
+      <c r="J54" s="726"/>
+      <c r="K54" s="727"/>
+      <c r="L54" s="727"/>
+      <c r="M54" s="728"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="681" t="s">
+      <c r="A55" s="743" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="682"/>
-      <c r="C55" s="756" t="s">
+      <c r="B55" s="744"/>
+      <c r="C55" s="757" t="s">
         <v>402</v>
       </c>
-      <c r="D55" s="756"/>
-      <c r="E55" s="756"/>
-      <c r="F55" s="756"/>
-      <c r="G55" s="756"/>
-      <c r="H55" s="756"/>
+      <c r="D55" s="757"/>
+      <c r="E55" s="757"/>
+      <c r="F55" s="757"/>
+      <c r="G55" s="757"/>
+      <c r="H55" s="757"/>
       <c r="I55" s="311"/>
-      <c r="J55" s="692"/>
-      <c r="K55" s="692"/>
-      <c r="L55" s="692"/>
-      <c r="M55" s="693"/>
+      <c r="J55" s="727"/>
+      <c r="K55" s="727"/>
+      <c r="L55" s="727"/>
+      <c r="M55" s="728"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="81"/>
       <c r="B56" s="82"/>
-      <c r="C56" s="757"/>
-      <c r="D56" s="757"/>
-      <c r="E56" s="757"/>
-      <c r="F56" s="757"/>
-      <c r="G56" s="757"/>
-      <c r="H56" s="757"/>
+      <c r="C56" s="758"/>
+      <c r="D56" s="758"/>
+      <c r="E56" s="758"/>
+      <c r="F56" s="758"/>
+      <c r="G56" s="758"/>
+      <c r="H56" s="758"/>
       <c r="I56" s="312"/>
       <c r="J56" s="235"/>
-      <c r="K56" s="663" t="s">
+      <c r="K56" s="729" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="663"/>
+      <c r="L56" s="729"/>
       <c r="M56" s="207"/>
     </row>
     <row r="57" spans="1:14" s="202" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81"/>
       <c r="B57" s="82"/>
-      <c r="C57" s="757"/>
-      <c r="D57" s="757"/>
-      <c r="E57" s="757"/>
-      <c r="F57" s="757"/>
-      <c r="G57" s="757"/>
-      <c r="H57" s="757"/>
+      <c r="C57" s="758"/>
+      <c r="D57" s="758"/>
+      <c r="E57" s="758"/>
+      <c r="F57" s="758"/>
+      <c r="G57" s="758"/>
+      <c r="H57" s="758"/>
       <c r="I57" s="312"/>
-      <c r="J57" s="663"/>
-      <c r="K57" s="663"/>
-      <c r="L57" s="663"/>
-      <c r="M57" s="664"/>
+      <c r="J57" s="729"/>
+      <c r="K57" s="729"/>
+      <c r="L57" s="729"/>
+      <c r="M57" s="773"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="205"/>
@@ -18496,8 +18722,8 @@
       <c r="H58" s="313"/>
       <c r="I58" s="314"/>
       <c r="J58" s="209"/>
-      <c r="K58" s="746"/>
-      <c r="L58" s="747"/>
+      <c r="K58" s="703"/>
+      <c r="L58" s="704"/>
       <c r="M58" s="210"/>
     </row>
     <row r="59" spans="1:14" s="202" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18511,112 +18737,112 @@
       <c r="H59" s="204"/>
       <c r="I59" s="204"/>
       <c r="J59" s="209"/>
-      <c r="K59" s="748"/>
-      <c r="L59" s="749"/>
+      <c r="K59" s="705"/>
+      <c r="L59" s="706"/>
       <c r="M59" s="210"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
-      <c r="B60" s="770" t="s">
+      <c r="B60" s="661" t="s">
         <v>401</v>
       </c>
-      <c r="C60" s="771"/>
-      <c r="D60" s="772"/>
+      <c r="C60" s="662"/>
+      <c r="D60" s="663"/>
       <c r="E60" s="84"/>
-      <c r="F60" s="761"/>
-      <c r="G60" s="762"/>
-      <c r="H60" s="762"/>
-      <c r="I60" s="763"/>
+      <c r="F60" s="652"/>
+      <c r="G60" s="653"/>
+      <c r="H60" s="653"/>
+      <c r="I60" s="654"/>
       <c r="J60" s="209"/>
-      <c r="K60" s="748"/>
-      <c r="L60" s="749"/>
+      <c r="K60" s="705"/>
+      <c r="L60" s="706"/>
       <c r="M60" s="85"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
-      <c r="B61" s="752" t="s">
+      <c r="B61" s="709" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="753"/>
+      <c r="C61" s="710"/>
       <c r="D61" s="145"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="764"/>
-      <c r="G61" s="765"/>
-      <c r="H61" s="765"/>
-      <c r="I61" s="766"/>
+      <c r="F61" s="655"/>
+      <c r="G61" s="656"/>
+      <c r="H61" s="656"/>
+      <c r="I61" s="657"/>
       <c r="J61" s="209"/>
-      <c r="K61" s="748"/>
-      <c r="L61" s="749"/>
+      <c r="K61" s="705"/>
+      <c r="L61" s="706"/>
       <c r="M61" s="85"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
-      <c r="B62" s="740" t="s">
+      <c r="B62" s="698" t="s">
         <v>391</v>
       </c>
-      <c r="C62" s="741"/>
-      <c r="D62" s="744"/>
+      <c r="C62" s="699"/>
+      <c r="D62" s="664"/>
       <c r="E62" s="84"/>
-      <c r="F62" s="767"/>
-      <c r="G62" s="768"/>
-      <c r="H62" s="768"/>
-      <c r="I62" s="769"/>
+      <c r="F62" s="658"/>
+      <c r="G62" s="659"/>
+      <c r="H62" s="659"/>
+      <c r="I62" s="660"/>
       <c r="J62" s="209"/>
-      <c r="K62" s="748"/>
-      <c r="L62" s="749"/>
+      <c r="K62" s="705"/>
+      <c r="L62" s="706"/>
       <c r="M62" s="85"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
-      <c r="B63" s="754"/>
-      <c r="C63" s="755"/>
-      <c r="D63" s="773"/>
+      <c r="B63" s="711"/>
+      <c r="C63" s="712"/>
+      <c r="D63" s="665"/>
       <c r="E63" s="84"/>
-      <c r="F63" s="774" t="s">
+      <c r="F63" s="666" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="775"/>
-      <c r="H63" s="775"/>
-      <c r="I63" s="776"/>
+      <c r="G63" s="667"/>
+      <c r="H63" s="667"/>
+      <c r="I63" s="668"/>
       <c r="J63" s="209"/>
-      <c r="K63" s="748"/>
-      <c r="L63" s="749"/>
+      <c r="K63" s="705"/>
+      <c r="L63" s="706"/>
       <c r="M63" s="85"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
-      <c r="B64" s="740" t="s">
+      <c r="B64" s="698" t="s">
         <v>390</v>
       </c>
-      <c r="C64" s="741"/>
-      <c r="D64" s="744"/>
+      <c r="C64" s="699"/>
+      <c r="D64" s="664"/>
       <c r="E64" s="84"/>
       <c r="F64" s="86"/>
       <c r="G64" s="212"/>
       <c r="H64" s="293"/>
       <c r="I64" s="213"/>
       <c r="J64" s="87"/>
-      <c r="K64" s="750"/>
-      <c r="L64" s="751"/>
+      <c r="K64" s="707"/>
+      <c r="L64" s="708"/>
       <c r="M64" s="85"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="83"/>
-      <c r="B65" s="742"/>
-      <c r="C65" s="743"/>
-      <c r="D65" s="745"/>
+      <c r="B65" s="700"/>
+      <c r="C65" s="701"/>
+      <c r="D65" s="702"/>
       <c r="E65" s="84"/>
-      <c r="F65" s="737" t="s">
+      <c r="F65" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="738"/>
-      <c r="H65" s="738"/>
-      <c r="I65" s="739"/>
+      <c r="G65" s="696"/>
+      <c r="H65" s="696"/>
+      <c r="I65" s="697"/>
       <c r="J65" s="87"/>
-      <c r="K65" s="735" t="s">
+      <c r="K65" s="693" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="736"/>
+      <c r="L65" s="694"/>
       <c r="M65" s="85"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18635,32 +18861,32 @@
       <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="732" t="s">
+      <c r="A67" s="690" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="733"/>
-      <c r="C67" s="733"/>
-      <c r="D67" s="733"/>
-      <c r="E67" s="733"/>
-      <c r="F67" s="733"/>
-      <c r="G67" s="733"/>
-      <c r="H67" s="733"/>
-      <c r="I67" s="733"/>
-      <c r="J67" s="733"/>
-      <c r="K67" s="733"/>
-      <c r="L67" s="733"/>
-      <c r="M67" s="734"/>
+      <c r="B67" s="691"/>
+      <c r="C67" s="691"/>
+      <c r="D67" s="691"/>
+      <c r="E67" s="691"/>
+      <c r="F67" s="691"/>
+      <c r="G67" s="691"/>
+      <c r="H67" s="691"/>
+      <c r="I67" s="691"/>
+      <c r="J67" s="691"/>
+      <c r="K67" s="691"/>
+      <c r="L67" s="691"/>
+      <c r="M67" s="692"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="87"/>
       <c r="C68" s="94"/>
       <c r="D68" s="94"/>
-      <c r="E68" s="729"/>
-      <c r="F68" s="730"/>
-      <c r="G68" s="730"/>
-      <c r="H68" s="730"/>
-      <c r="I68" s="731"/>
+      <c r="E68" s="687"/>
+      <c r="F68" s="688"/>
+      <c r="G68" s="688"/>
+      <c r="H68" s="688"/>
+      <c r="I68" s="689"/>
       <c r="J68" s="146"/>
       <c r="K68" s="146"/>
       <c r="L68" s="95"/>
@@ -18671,13 +18897,13 @@
       <c r="B69" s="87"/>
       <c r="C69" s="294"/>
       <c r="D69" s="294"/>
-      <c r="E69" s="726" t="s">
+      <c r="E69" s="684" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="727"/>
-      <c r="G69" s="727"/>
-      <c r="H69" s="727"/>
-      <c r="I69" s="728"/>
+      <c r="F69" s="685"/>
+      <c r="G69" s="685"/>
+      <c r="H69" s="685"/>
+      <c r="I69" s="686"/>
       <c r="J69" s="148"/>
       <c r="K69" s="147"/>
       <c r="L69" s="96"/>
@@ -18699,21 +18925,21 @@
       <c r="M70" s="99"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="725" t="s">
+      <c r="A71" s="683" t="s">
         <v>382</v>
       </c>
-      <c r="B71" s="725"/>
-      <c r="C71" s="725"/>
-      <c r="D71" s="725"/>
-      <c r="E71" s="725"/>
-      <c r="F71" s="725"/>
-      <c r="G71" s="725"/>
-      <c r="H71" s="725"/>
-      <c r="I71" s="725"/>
-      <c r="J71" s="725"/>
-      <c r="K71" s="725"/>
-      <c r="L71" s="725"/>
-      <c r="M71" s="725"/>
+      <c r="B71" s="683"/>
+      <c r="C71" s="683"/>
+      <c r="D71" s="683"/>
+      <c r="E71" s="683"/>
+      <c r="F71" s="683"/>
+      <c r="G71" s="683"/>
+      <c r="H71" s="683"/>
+      <c r="I71" s="683"/>
+      <c r="J71" s="683"/>
+      <c r="K71" s="683"/>
+      <c r="L71" s="683"/>
+      <c r="M71" s="683"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -18726,41 +18952,40 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="85">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="C23:F26"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C37:F40"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="I39:L39"/>
@@ -18777,45 +19002,46 @@
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="C55:H57"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C37:F40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C23:F26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.12" right="0" top="0.34" bottom="0" header="0.17" footer="0"/>
-  <pageSetup paperSize="128" scale="94" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="128" scale="81" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -19379,7 +19605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor indexed="10"/>
   </sheetPr>
